--- a/1_Transportation-Problem_LPP/src/Transportation-Problem_LPP/2_MS-Exel_Solver-Results_XLSX-FILE/Transportation-Problem_LPP.xlsx
+++ b/1_Transportation-Problem_LPP/src/Transportation-Problem_LPP/2_MS-Exel_Solver-Results_XLSX-FILE/Transportation-Problem_LPP.xlsx
@@ -1,66 +1,111 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Łukasz Tworzydło\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carpe Tonus\GitHub Repositories\2022-Q4-4_MATH_operations-research\1_Transportation-Problem_LPP\src\2022-12-17 (1)\Transportation-Problem_LPP\2_MS-Exel_Solver-Results_XLSX-FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409B5275-9C4C-4636-86C2-E5D0DE8FD50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B94B92E-E338-4D7C-8B31-CA961EB33C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5069B475-95CF-4AFB-8FD9-7009343AD4F0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5069B475-95CF-4AFB-8FD9-7009343AD4F0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1_Bez-Magazynu" sheetId="1" r:id="rId1"/>
+    <sheet name="2_Z-Magazynem" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$B$20:$E$22</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'1_Bez-Magazynu'!$B$20:$E$22</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'2_Z-Magazynem'!$B$20:$F$22</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$B$25:$E$25</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$G$20:$G$22</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'1_Bez-Magazynu'!$B$25:$E$25</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'2_Z-Magazynem'!$B$25:$F$25</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'1_Bez-Magazynu'!$G$20:$G$22</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'2_Z-Magazynem'!$H$20:$H$22</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$H$25</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'1_Bez-Magazynu'!$H$25</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'2_Z-Magazynem'!$I$25</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$B$16:$E$16</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$G$11:$G$13</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'1_Bez-Magazynu'!$B$16:$E$16</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'2_Z-Magazynem'!$B$16:$F$16</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'1_Bez-Magazynu'!$G$11:$G$13</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'2_Z-Magazynem'!$H$11:$H$13</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="24">
   <si>
     <t>ZADANIE TRANSPORTOWE [ TRANSPORTATION PROBLEM ]</t>
   </si>
@@ -126,6 +171,12 @@
   </si>
   <si>
     <t>Ilość surowca w kg wywieziona z zakładów</t>
+  </si>
+  <si>
+    <t>MAGAZYN</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -188,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -437,11 +488,220 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -481,10 +741,49 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -493,43 +792,80 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -853,47 +1189,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB11839E-8C85-45AA-8020-17F9C0919B4A}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H25" sqref="H25:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="24"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -906,14 +1242,14 @@
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="26"/>
-      <c r="I3" s="16" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="28"/>
+      <c r="I3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -937,12 +1273,12 @@
       <c r="G4" s="4">
         <v>4</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -1010,18 +1346,18 @@
       <c r="G7" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="G9" s="16" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="G9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
@@ -1103,22 +1439,22 @@
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
       <c r="G15" s="13">
         <f>SUM(G11:G13)</f>
         <v>7500</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="18"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
@@ -1140,21 +1476,21 @@
         <f>SUM(B16:E16)</f>
         <v>5000</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22"/>
     </row>
     <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -1170,13 +1506,13 @@
       <c r="E19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
@@ -1194,7 +1530,7 @@
       <c r="E20" s="4">
         <v>0</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="17">
         <f>SUM(B20:E20)</f>
         <v>1000</v>
       </c>
@@ -1215,7 +1551,7 @@
       <c r="E21" s="4">
         <v>0</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="17">
         <f>SUM(B21:E21)</f>
         <v>2000</v>
       </c>
@@ -1236,64 +1572,59 @@
       <c r="E22" s="9">
         <v>1000</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="17">
         <f>SUM(B22:E22)</f>
         <v>2000</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="G24" s="29">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="G24" s="16">
         <f>SUM(G20:G22)</f>
         <v>5000</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B25" s="31">
+      <c r="B25" s="18">
         <f>SUM(B20:B22)</f>
         <v>1000</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="18">
         <f>SUM(C20:C22)</f>
         <v>2000</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="18">
         <f>SUM(D20:D22)</f>
         <v>1000</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="18">
         <f>SUM(E20:E22)</f>
         <v>1000</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="15">
         <f>SUM(B25:E25)</f>
         <v>5000</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="20">
         <f>SUMPRODUCT(B11:E13,B20:E22)</f>
         <v>800</v>
       </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="A18:E18"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:E2"/>
@@ -1307,6 +1638,548 @@
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="H15:K15"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="A18:E18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00FDDEF-5E10-42E4-BD49-5068666644FA}">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="26"/>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="42"/>
+      <c r="H3" s="28"/>
+      <c r="J3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="39">
+        <v>1</v>
+      </c>
+      <c r="F4" s="44">
+        <v>0</v>
+      </c>
+      <c r="G4" s="43">
+        <v>3000</v>
+      </c>
+      <c r="H4" s="4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="39">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="44">
+        <v>0</v>
+      </c>
+      <c r="G5" s="43">
+        <v>2000</v>
+      </c>
+      <c r="H5" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="46">
+        <v>0</v>
+      </c>
+      <c r="E6" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="48">
+        <v>0</v>
+      </c>
+      <c r="G6" s="49">
+        <v>2500</v>
+      </c>
+      <c r="H6" s="50">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="40">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="51">
+        <v>2000</v>
+      </c>
+      <c r="G7" s="52"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="H9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3">
+        <f>(0*H4)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <f>(0.4*H4)</f>
+        <v>1.6</v>
+      </c>
+      <c r="D11" s="3">
+        <f>(0.5*H4)</f>
+        <v>2</v>
+      </c>
+      <c r="E11" s="4">
+        <f>(1*H4)</f>
+        <v>4</v>
+      </c>
+      <c r="F11" s="55">
+        <f>(0*H4)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3">
+        <f>(1*H5)</f>
+        <v>4.5</v>
+      </c>
+      <c r="C12" s="3">
+        <f>(0*H5)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <f>(0.8*H5)</f>
+        <v>3.6</v>
+      </c>
+      <c r="E12" s="4">
+        <f>(0.6*H5)</f>
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="F12" s="55">
+        <f>(0*H5)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="8">
+        <f>(0.5*H6)</f>
+        <v>2.1</v>
+      </c>
+      <c r="C13" s="8">
+        <f>(0.5*H6)</f>
+        <v>2.1</v>
+      </c>
+      <c r="D13" s="8">
+        <f>(0*H6)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <f>(0.8*H6)</f>
+        <v>3.3600000000000003</v>
+      </c>
+      <c r="F13" s="56">
+        <f>(0*H6)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="H15" s="13">
+        <f>SUM(H11:H13)</f>
+        <v>7500</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="37"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="57">
+        <v>2000</v>
+      </c>
+      <c r="H16" s="14">
+        <f>SUM(B16:F16)</f>
+        <v>7000</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="34"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="55">
+        <v>1500</v>
+      </c>
+      <c r="H20" s="17">
+        <f>SUM(B20:F20)</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="55">
+        <v>0</v>
+      </c>
+      <c r="H21" s="17">
+        <f>SUM(B21:F21)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="56">
+        <v>500</v>
+      </c>
+      <c r="H22" s="17">
+        <f>SUM(B22:F22)</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="H24" s="16">
+        <f>SUM(H20:H22)</f>
+        <v>7000</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B25" s="18">
+        <f>SUM(B20:B22)</f>
+        <v>1000</v>
+      </c>
+      <c r="C25" s="18">
+        <f>SUM(C20:C22)</f>
+        <v>2000</v>
+      </c>
+      <c r="D25" s="18">
+        <f>SUM(D20:D22)</f>
+        <v>1000</v>
+      </c>
+      <c r="E25" s="18">
+        <f>SUM(E20:E22)</f>
+        <v>1000</v>
+      </c>
+      <c r="F25" s="18">
+        <f>SUM(F20:F22)</f>
+        <v>2000</v>
+      </c>
+      <c r="H25" s="15">
+        <f>SUM(B25:F25)</f>
+        <v>7000</v>
+      </c>
+      <c r="I25" s="20">
+        <f>SUMPRODUCT(B11:E13,B20:E22)</f>
+        <v>3360.0000000000005</v>
+      </c>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1_Transportation-Problem_LPP/src/Transportation-Problem_LPP/2_MS-Exel_Solver-Results_XLSX-FILE/Transportation-Problem_LPP.xlsx
+++ b/1_Transportation-Problem_LPP/src/Transportation-Problem_LPP/2_MS-Exel_Solver-Results_XLSX-FILE/Transportation-Problem_LPP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carpe Tonus\GitHub Repositories\2022-Q4-4_MATH_operations-research\1_Transportation-Problem_LPP\src\2022-12-17 (1)\Transportation-Problem_LPP\2_MS-Exel_Solver-Results_XLSX-FILE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carpe Tonus\GitHub Repositories\2022-Q4-4_MATH_operations-research\1_Transportation-Problem_LPP\src\2022-12-17 (2)\Transportation-Problem_LPP\2_MS-Exel_Solver-Results_XLSX-FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B94B92E-E338-4D7C-8B31-CA961EB33C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E57C996-D5F1-4439-857E-F19C266317A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5069B475-95CF-4AFB-8FD9-7009343AD4F0}"/>
   </bookViews>
@@ -89,17 +89,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -701,7 +690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -753,18 +742,43 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -792,6 +806,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -801,71 +827,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1196,40 +1164,40 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="26"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1242,14 +1210,14 @@
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="28"/>
-      <c r="I3" s="19" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="37"/>
+      <c r="I3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -1273,12 +1241,12 @@
       <c r="G4" s="4">
         <v>4</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -1346,18 +1314,18 @@
       <c r="G7" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="G9" s="19" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="G9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
@@ -1439,22 +1407,22 @@
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
       <c r="G15" s="13">
         <f>SUM(G11:G13)</f>
         <v>7500</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="31"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="40"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
@@ -1476,21 +1444,21 @@
         <f>SUM(B16:E16)</f>
         <v>5000</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="22"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30"/>
     </row>
     <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -1506,13 +1474,13 @@
       <c r="E19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
@@ -1578,22 +1546,22 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
       <c r="G24" s="16">
         <f>SUM(G20:G22)</f>
         <v>5000</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B25" s="18">
@@ -1616,15 +1584,20 @@
         <f>SUM(B25:E25)</f>
         <v>5000</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="41">
         <f>SUMPRODUCT(B11:E13,B20:E22)</f>
         <v>800</v>
       </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="A18:E18"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:E2"/>
@@ -1638,11 +1611,6 @@
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="H15:K15"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="A18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1653,7 +1621,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="I25" sqref="I25:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1662,45 +1630,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="53" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="26"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1710,20 +1678,20 @@
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="28"/>
-      <c r="J3" s="19" t="s">
+      <c r="G3" s="50"/>
+      <c r="H3" s="37"/>
+      <c r="J3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -1738,24 +1706,24 @@
       <c r="D4" s="3">
         <v>0.5</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="19">
         <v>1</v>
       </c>
-      <c r="F4" s="44">
-        <v>0</v>
-      </c>
-      <c r="G4" s="43">
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21">
         <v>3000</v>
       </c>
       <c r="H4" s="4">
         <v>4</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -1770,13 +1738,13 @@
       <c r="D5" s="3">
         <v>0.8</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="19">
         <v>0.6</v>
       </c>
-      <c r="F5" s="44">
-        <v>0</v>
-      </c>
-      <c r="G5" s="43">
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="21">
         <v>2000</v>
       </c>
       <c r="H5" s="4">
@@ -1784,28 +1752,28 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="23">
         <v>0.5</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="23">
         <v>0.5</v>
       </c>
-      <c r="D6" s="46">
-        <v>0</v>
-      </c>
-      <c r="E6" s="47">
+      <c r="D6" s="23">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
         <v>0.8</v>
       </c>
-      <c r="F6" s="48">
-        <v>0</v>
-      </c>
-      <c r="G6" s="49">
+      <c r="F6" s="23">
+        <v>0</v>
+      </c>
+      <c r="G6" s="25">
         <v>2500</v>
       </c>
-      <c r="H6" s="50">
+      <c r="H6" s="26">
         <v>4.2</v>
       </c>
     </row>
@@ -1822,30 +1790,30 @@
       <c r="D7" s="11">
         <v>1000</v>
       </c>
-      <c r="E7" s="40">
-        <v>1000</v>
-      </c>
-      <c r="F7" s="51">
-        <v>2000</v>
-      </c>
-      <c r="G7" s="52"/>
+      <c r="E7" s="20">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="11">
+        <v>2500</v>
+      </c>
+      <c r="G7" s="27"/>
       <c r="H7" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="H9" s="19" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="H9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
@@ -1861,7 +1829,7 @@
       <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="6" t="s">
@@ -1873,24 +1841,24 @@
         <v>3</v>
       </c>
       <c r="B11" s="3">
-        <f>(0*H4)</f>
-        <v>0</v>
+        <f>(0+H4)</f>
+        <v>4</v>
       </c>
       <c r="C11" s="3">
-        <f>(0.4*H4)</f>
-        <v>1.6</v>
+        <f>(0.4+H4)</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D11" s="3">
-        <f>(0.5*H4)</f>
-        <v>2</v>
+        <f>(0.5+H4)</f>
+        <v>4.5</v>
       </c>
       <c r="E11" s="4">
-        <f>(1*H4)</f>
+        <f>(1+H4)</f>
+        <v>5</v>
+      </c>
+      <c r="F11" s="4">
+        <f>(0+H4)</f>
         <v>4</v>
-      </c>
-      <c r="F11" s="55">
-        <f>(0*H4)</f>
-        <v>0</v>
       </c>
       <c r="H11" s="6">
         <v>3000</v>
@@ -1901,24 +1869,24 @@
         <v>4</v>
       </c>
       <c r="B12" s="3">
-        <f>(1*H5)</f>
+        <f>(1+H5)</f>
+        <v>5.5</v>
+      </c>
+      <c r="C12" s="3">
+        <f>(0+H5)</f>
         <v>4.5</v>
       </c>
-      <c r="C12" s="3">
-        <f>(0*H5)</f>
-        <v>0</v>
-      </c>
       <c r="D12" s="3">
-        <f>(0.8*H5)</f>
-        <v>3.6</v>
+        <f>(0.8+H5)</f>
+        <v>5.3</v>
       </c>
       <c r="E12" s="4">
-        <f>(0.6*H5)</f>
-        <v>2.6999999999999997</v>
-      </c>
-      <c r="F12" s="55">
-        <f>(0*H5)</f>
-        <v>0</v>
+        <f>(0.6+H5)</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F12" s="4">
+        <f>(0+H5)</f>
+        <v>4.5</v>
       </c>
       <c r="H12" s="6">
         <v>2000</v>
@@ -1929,24 +1897,24 @@
         <v>5</v>
       </c>
       <c r="B13" s="8">
-        <f>(0.5*H6)</f>
-        <v>2.1</v>
+        <f>(0.5+H6)</f>
+        <v>4.7</v>
       </c>
       <c r="C13" s="8">
-        <f>(0.5*H6)</f>
-        <v>2.1</v>
+        <f>(0.5+H6)</f>
+        <v>4.7</v>
       </c>
       <c r="D13" s="8">
-        <f>(0*H6)</f>
-        <v>0</v>
+        <f>(0+H6)</f>
+        <v>4.2</v>
       </c>
       <c r="E13" s="9">
-        <f>(0.8*H6)</f>
-        <v>3.3600000000000003</v>
-      </c>
-      <c r="F13" s="56">
-        <f>(0*H6)</f>
-        <v>0</v>
+        <f>(0.8+H6)</f>
+        <v>5</v>
+      </c>
+      <c r="F13" s="9">
+        <f>(0+H6)</f>
+        <v>4.2</v>
       </c>
       <c r="H13" s="6">
         <v>2500</v>
@@ -1954,24 +1922,24 @@
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
       <c r="H15" s="13">
         <f>SUM(H11:H13)</f>
         <v>7500</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="I15" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="37"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="44"/>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
@@ -1989,28 +1957,28 @@
       <c r="E16" s="12">
         <v>1000</v>
       </c>
-      <c r="F16" s="57">
-        <v>2000</v>
+      <c r="F16" s="12">
+        <v>2500</v>
       </c>
       <c r="H16" s="14">
         <f>SUM(B16:F16)</f>
-        <v>7000</v>
-      </c>
-      <c r="I16" s="32" t="s">
+        <v>7500</v>
+      </c>
+      <c r="I16" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="34"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="47"/>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -2026,16 +1994,16 @@
       <c r="E19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
@@ -2045,7 +2013,7 @@
         <v>1000</v>
       </c>
       <c r="C20" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -2053,12 +2021,12 @@
       <c r="E20" s="4">
         <v>0</v>
       </c>
-      <c r="F20" s="55">
-        <v>1500</v>
+      <c r="F20" s="4">
+        <v>0</v>
       </c>
       <c r="H20" s="17">
         <f>SUM(B20:F20)</f>
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -2069,16 +2037,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
         <v>2000</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="55">
-        <v>0</v>
       </c>
       <c r="H21" s="17">
         <f>SUM(B21:F21)</f>
@@ -2101,7 +2069,7 @@
       <c r="E22" s="9">
         <v>1000</v>
       </c>
-      <c r="F22" s="56">
+      <c r="F22" s="9">
         <v>500</v>
       </c>
       <c r="H22" s="17">
@@ -2110,23 +2078,23 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
       <c r="H24" s="16">
         <f>SUM(H20:H22)</f>
-        <v>7000</v>
-      </c>
-      <c r="I24" s="19" t="s">
+        <v>7500</v>
+      </c>
+      <c r="I24" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B25" s="18">
@@ -2147,21 +2115,23 @@
       </c>
       <c r="F25" s="18">
         <f>SUM(F20:F22)</f>
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="H25" s="15">
         <f>SUM(B25:F25)</f>
-        <v>7000</v>
-      </c>
-      <c r="I25" s="20">
+        <v>7500</v>
+      </c>
+      <c r="I25" s="41">
         <f>SUMPRODUCT(B11:E13,B20:E22)</f>
-        <v>3360.0000000000005</v>
-      </c>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
+        <v>22000</v>
+      </c>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I25:K25"/>
@@ -2178,8 +2148,6 @@
     <mergeCell ref="I16:L16"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1_Transportation-Problem_LPP/src/Transportation-Problem_LPP/2_MS-Exel_Solver-Results_XLSX-FILE/Transportation-Problem_LPP.xlsx
+++ b/1_Transportation-Problem_LPP/src/Transportation-Problem_LPP/2_MS-Exel_Solver-Results_XLSX-FILE/Transportation-Problem_LPP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carpe Tonus\GitHub Repositories\2022-Q4-4_MATH_operations-research\1_Transportation-Problem_LPP\src\2022-12-17 (2)\Transportation-Problem_LPP\2_MS-Exel_Solver-Results_XLSX-FILE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carpe Tonus\GitHub Repositories\2022-Q4-4_MATH_operations-research\1_Transportation-Problem_LPP\src\2022-12-17 (3)\Transportation-Problem_LPP\2_MS-Exel_Solver-Results_XLSX-FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E57C996-D5F1-4439-857E-F19C266317A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D6A4DC-2858-4CFB-8825-034D66805884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5069B475-95CF-4AFB-8FD9-7009343AD4F0}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="24">
   <si>
     <t>ZADANIE TRANSPORTOWE [ TRANSPORTATION PROBLEM ]</t>
   </si>
@@ -690,7 +690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -770,15 +770,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -806,7 +809,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -830,10 +836,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1164,40 +1167,41 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="35"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1210,14 +1214,14 @@
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="37"/>
-      <c r="I3" s="31" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="38"/>
+      <c r="I3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -1241,12 +1245,12 @@
       <c r="G4" s="4">
         <v>4</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -1314,18 +1318,19 @@
       <c r="G7" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="G9" s="31" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="G9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
@@ -1407,22 +1412,23 @@
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
       <c r="G15" s="13">
         <f>SUM(G11:G13)</f>
         <v>7500</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
@@ -1444,21 +1450,21 @@
         <f>SUM(B16:E16)</f>
         <v>5000</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="30"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="32"/>
     </row>
     <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -1474,13 +1480,13 @@
       <c r="E19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
@@ -1546,24 +1552,27 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
       <c r="G24" s="16">
         <f>SUM(G20:G22)</f>
         <v>5000</v>
       </c>
-      <c r="H24" s="31" t="s">
+      <c r="H24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="51" t="s">
+        <v>7</v>
+      </c>
       <c r="B25" s="18">
         <f>SUM(B20:B22)</f>
         <v>1000</v>
@@ -1584,33 +1593,33 @@
         <f>SUM(B25:E25)</f>
         <v>5000</v>
       </c>
-      <c r="H25" s="41">
+      <c r="H25" s="30">
         <f>SUMPRODUCT(B11:E13,B20:E22)</f>
         <v>800</v>
       </c>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="A18:E18"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="H15:K15"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="A18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1630,45 +1639,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="48"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="35"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1684,14 +1693,14 @@
       <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="37"/>
-      <c r="J3" s="31" t="s">
+      <c r="G3" s="43"/>
+      <c r="H3" s="38"/>
+      <c r="J3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -1718,12 +1727,12 @@
       <c r="H4" s="4">
         <v>4</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -1800,20 +1809,20 @@
       <c r="H7" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="H9" s="31" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="H9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
@@ -1922,24 +1931,24 @@
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
       <c r="H15" s="13">
         <f>SUM(H11:H13)</f>
         <v>7500</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="44"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="46"/>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
@@ -1964,21 +1973,21 @@
         <f>SUM(B16:F16)</f>
         <v>7500</v>
       </c>
-      <c r="I16" s="45" t="s">
+      <c r="I16" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="47"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="49"/>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -1997,13 +2006,13 @@
       <c r="F19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="H19" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
@@ -2078,25 +2087,28 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
       <c r="H24" s="16">
         <f>SUM(H20:H22)</f>
         <v>7500</v>
       </c>
-      <c r="I24" s="31" t="s">
+      <c r="I24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="51" t="s">
+        <v>7</v>
+      </c>
       <c r="B25" s="18">
         <f>SUM(B20:B22)</f>
         <v>1000</v>
@@ -2121,15 +2133,17 @@
         <f>SUM(B25:F25)</f>
         <v>7500</v>
       </c>
-      <c r="I25" s="41">
+      <c r="I25" s="30">
         <f>SUMPRODUCT(B11:E13,B20:E22)</f>
         <v>22000</v>
       </c>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="J2:M2"/>
@@ -2146,8 +2160,6 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="I16:L16"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1_Transportation-Problem_LPP/src/Transportation-Problem_LPP/2_MS-Exel_Solver-Results_XLSX-FILE/Transportation-Problem_LPP.xlsx
+++ b/1_Transportation-Problem_LPP/src/Transportation-Problem_LPP/2_MS-Exel_Solver-Results_XLSX-FILE/Transportation-Problem_LPP.xlsx
@@ -5,84 +5,85 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carpe Tonus\GitHub Repositories\2022-Q4-4_MATH_operations-research\1_Transportation-Problem_LPP\src\2022-12-17 (3)\Transportation-Problem_LPP\2_MS-Exel_Solver-Results_XLSX-FILE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carpe Tonus\GitHub Repositories\2022-Q4-4_MATH_operations-research\1_Transportation-Problem_LPP\src\2022-12-17 (4)\Transportation-Problem_LPP\2_MS-Exel_Solver-Results_XLSX-FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D6A4DC-2858-4CFB-8825-034D66805884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806440B5-BD82-4A8B-839A-C14040B17781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5069B475-95CF-4AFB-8FD9-7009343AD4F0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5069B475-95CF-4AFB-8FD9-7009343AD4F0}"/>
   </bookViews>
   <sheets>
-    <sheet name="1_Bez-Magazynu" sheetId="1" r:id="rId1"/>
-    <sheet name="2_Z-Magazynem" sheetId="2" r:id="rId2"/>
+    <sheet name="0_Zeszyt (TP-n)" sheetId="3" r:id="rId1"/>
+    <sheet name="1_Bez-Magazynu" sheetId="1" r:id="rId2"/>
+    <sheet name="2_Z-Magazynem" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'1_Bez-Magazynu'!$B$20:$E$22</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'2_Z-Magazynem'!$B$20:$F$22</definedName>
-    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'1_Bez-Magazynu'!$B$20:$E$22</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'2_Z-Magazynem'!$B$20:$F$22</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'1_Bez-Magazynu'!$B$25:$E$25</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'2_Z-Magazynem'!$B$25:$F$25</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'1_Bez-Magazynu'!$G$20:$G$22</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'2_Z-Magazynem'!$H$20:$H$22</definedName>
-    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'1_Bez-Magazynu'!$B$25:$E$25</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'2_Z-Magazynem'!$B$25:$F$25</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'1_Bez-Magazynu'!$G$20:$G$22</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'2_Z-Magazynem'!$H$20:$H$22</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'1_Bez-Magazynu'!$H$25</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'2_Z-Magazynem'!$I$25</definedName>
-    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'1_Bez-Magazynu'!$H$25</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'2_Z-Magazynem'!$I$25</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'1_Bez-Magazynu'!$B$16:$E$16</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'2_Z-Magazynem'!$B$16:$F$16</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'1_Bez-Magazynu'!$G$11:$G$13</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'2_Z-Magazynem'!$H$11:$H$13</definedName>
-    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'1_Bez-Magazynu'!$B$16:$E$16</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'2_Z-Magazynem'!$B$16:$F$16</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'1_Bez-Magazynu'!$G$11:$G$13</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'2_Z-Magazynem'!$H$11:$H$13</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -770,10 +771,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -800,7 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -809,6 +807,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -832,12 +839,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -859,6 +860,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>298449</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28176</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D1F14A-7695-24BB-286A-FCB4FC56A0A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3956049" cy="3895326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1157,6 +1213,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB8ADA3-9B4E-4EC8-91DC-1BE34F41EF1C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB11839E-8C85-45AA-8020-17F9C0919B4A}">
   <dimension ref="A1:L25"/>
   <sheetViews>
@@ -1167,41 +1236,41 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="36"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1214,14 +1283,14 @@
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="38"/>
-      <c r="I3" s="29" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="37"/>
+      <c r="I3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -1245,12 +1314,12 @@
       <c r="G4" s="4">
         <v>4</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -1318,19 +1387,19 @@
       <c r="G7" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="G9" s="29" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="G9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
@@ -1412,23 +1481,23 @@
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
       <c r="G15" s="13">
         <f>SUM(G11:G13)</f>
         <v>7500</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="H15" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="40"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
@@ -1450,21 +1519,21 @@
         <f>SUM(B16:E16)</f>
         <v>5000</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
     </row>
     <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -1480,13 +1549,13 @@
       <c r="E19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
@@ -1552,25 +1621,25 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
       <c r="G24" s="16">
         <f>SUM(G20:G22)</f>
         <v>5000</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H24" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="18">
@@ -1593,43 +1662,43 @@
         <f>SUM(B25:E25)</f>
         <v>5000</v>
       </c>
-      <c r="H25" s="30">
+      <c r="H25" s="42">
         <f>SUMPRODUCT(B11:E13,B20:E22)</f>
         <v>800</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A15:E15"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="I3:L3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="A18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00FDDEF-5E10-42E4-BD49-5068666644FA}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I25" sqref="I25:K25"/>
     </sheetView>
   </sheetViews>
@@ -1639,45 +1708,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="36"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1693,14 +1762,14 @@
       <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="38"/>
-      <c r="J3" s="29" t="s">
+      <c r="G3" s="45"/>
+      <c r="H3" s="37"/>
+      <c r="J3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -1727,12 +1796,12 @@
       <c r="H4" s="4">
         <v>4</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -1809,20 +1878,20 @@
       <c r="H7" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="H9" s="29" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="H9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
@@ -1931,24 +2000,24 @@
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
       <c r="H15" s="13">
         <f>SUM(H11:H13)</f>
         <v>7500</v>
       </c>
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="46"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="48"/>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
@@ -1973,21 +2042,21 @@
         <f>SUM(B16:F16)</f>
         <v>7500</v>
       </c>
-      <c r="I16" s="47" t="s">
+      <c r="I16" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="49"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="51"/>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -2006,13 +2075,13 @@
       <c r="F19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
@@ -2087,26 +2156,26 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
       <c r="H24" s="16">
         <f>SUM(H20:H22)</f>
         <v>7500</v>
       </c>
-      <c r="I24" s="29" t="s">
+      <c r="I24" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="18">
@@ -2133,21 +2202,19 @@
         <f>SUM(B25:F25)</f>
         <v>7500</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25" s="42">
         <f>SUMPRODUCT(B11:E13,B20:E22)</f>
         <v>22000</v>
       </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="A15:F15"/>
@@ -2155,11 +2222,13 @@
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="H19:L19"/>
     <mergeCell ref="I24:K24"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1_Transportation-Problem_LPP/src/Transportation-Problem_LPP/2_MS-Exel_Solver-Results_XLSX-FILE/Transportation-Problem_LPP.xlsx
+++ b/1_Transportation-Problem_LPP/src/Transportation-Problem_LPP/2_MS-Exel_Solver-Results_XLSX-FILE/Transportation-Problem_LPP.xlsx
@@ -5,85 +5,119 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carpe Tonus\GitHub Repositories\2022-Q4-4_MATH_operations-research\1_Transportation-Problem_LPP\src\2022-12-17 (4)\Transportation-Problem_LPP\2_MS-Exel_Solver-Results_XLSX-FILE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carpe Tonus\GitHub Repositories\2022-Q4-4_MATH_operations-research\1_Transportation-Problem_LPP\src\2023-01-04\Transportation-Problem_LPP\2_MS-Exel_Solver-Results_XLSX-FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806440B5-BD82-4A8B-839A-C14040B17781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B7A0A5-D0A3-403B-9879-461873190F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5069B475-95CF-4AFB-8FD9-7009343AD4F0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{5069B475-95CF-4AFB-8FD9-7009343AD4F0}"/>
   </bookViews>
   <sheets>
     <sheet name="0_Zeszyt (TP-n)" sheetId="3" r:id="rId1"/>
     <sheet name="1_Bez-Magazynu" sheetId="1" r:id="rId2"/>
-    <sheet name="2_Z-Magazynem" sheetId="2" r:id="rId3"/>
+    <sheet name="2_Z-Magazynem (+kt)" sheetId="2" r:id="rId3"/>
+    <sheet name="3_Z-Magazynem (+kt +f-cja celu)" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'1_Bez-Magazynu'!$B$20:$E$22</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">'2_Z-Magazynem'!$B$20:$F$22</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'2_Z-Magazynem (+kt)'!$B$20:$F$22</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'3_Z-Magazynem (+kt +f-cja celu)'!$B$20:$F$22</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'1_Bez-Magazynu'!$B$25:$E$25</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'2_Z-Magazynem'!$B$25:$F$25</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'2_Z-Magazynem (+kt)'!$B$25:$F$25</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'3_Z-Magazynem (+kt +f-cja celu)'!$B$25:$F$25</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'1_Bez-Magazynu'!$G$20:$G$22</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'2_Z-Magazynem'!$H$20:$H$22</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'2_Z-Magazynem (+kt)'!$H$20:$H$22</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'3_Z-Magazynem (+kt +f-cja celu)'!$H$20:$H$22</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'1_Bez-Magazynu'!$H$25</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">'2_Z-Magazynem'!$I$25</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'2_Z-Magazynem (+kt)'!$I$25</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'3_Z-Magazynem (+kt +f-cja celu)'!$I$25</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">'1_Bez-Magazynu'!$B$16:$E$16</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'2_Z-Magazynem'!$B$16:$F$16</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'2_Z-Magazynem (+kt)'!$B$16:$F$16</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">'3_Z-Magazynem (+kt +f-cja celu)'!$B$16:$F$16</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">'1_Bez-Magazynu'!$G$11:$G$13</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'2_Z-Magazynem'!$H$11:$H$13</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'2_Z-Magazynem (+kt)'!$H$11:$H$13</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">'3_Z-Magazynem (+kt +f-cja celu)'!$H$11:$H$13</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -95,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="25">
   <si>
     <t>ZADANIE TRANSPORTOWE [ TRANSPORTATION PROBLEM ]</t>
   </si>
@@ -136,9 +170,6 @@
     <t>Koszty transportu [w zł za kg ]</t>
   </si>
   <si>
-    <t>Zapotrzebowanie odbiorców (t)</t>
-  </si>
-  <si>
     <t>Bj =&gt; ZM [ zapotrzebowanie miast ]</t>
   </si>
   <si>
@@ -168,6 +199,12 @@
   <si>
     <t>M</t>
   </si>
+  <si>
+    <t>Funkcja celu (z uwzględnieniem fikcyjnego magazynu )</t>
+  </si>
+  <si>
+    <t>Zapotrzebowanie odbiorców (kg)</t>
+  </si>
 </sst>
 </file>
 
@@ -191,7 +228,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +265,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="35">
     <border>
@@ -691,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -774,6 +817,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -786,31 +850,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -840,9 +883,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -918,9 +964,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -958,7 +1004,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1064,7 +1110,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1216,7 +1262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB8ADA3-9B4E-4EC8-91DC-1BE34F41EF1C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -1230,47 +1276,47 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:J25"/>
+      <selection activeCell="H24" sqref="H24:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="35"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1283,14 +1329,14 @@
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="37"/>
-      <c r="I3" s="38" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="42"/>
+      <c r="I3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -1314,12 +1360,12 @@
       <c r="G4" s="4">
         <v>4</v>
       </c>
-      <c r="I4" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
+      <c r="I4" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -1387,19 +1433,19 @@
       <c r="G7" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="G9" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="G9" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
@@ -1481,23 +1527,23 @@
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
+      <c r="A15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
       <c r="G15" s="13">
         <f>SUM(G11:G13)</f>
         <v>7500</v>
       </c>
-      <c r="H15" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="40"/>
+      <c r="H15" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
@@ -1519,21 +1565,21 @@
         <f>SUM(B16:E16)</f>
         <v>5000</v>
       </c>
-      <c r="H16" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="31"/>
+      <c r="H16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
+      <c r="A18" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -1549,13 +1595,13 @@
       <c r="E19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
+      <c r="G19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
@@ -1621,22 +1667,22 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
+      <c r="A24" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
       <c r="G24" s="16">
         <f>SUM(G20:G22)</f>
         <v>5000</v>
       </c>
-      <c r="H24" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
+      <c r="H24" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="29" t="s">
@@ -1662,15 +1708,17 @@
         <f>SUM(B25:E25)</f>
         <v>5000</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="32">
         <f>SUMPRODUCT(B11:E13,B20:E22)</f>
         <v>800</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I3:L3"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="G19:K19"/>
     <mergeCell ref="A24:E24"/>
@@ -1687,8 +1735,6 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="I3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1708,45 +1754,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="43"/>
       <c r="F2" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="35"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1760,16 +1806,16 @@
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="45"/>
-      <c r="H3" s="37"/>
-      <c r="J3" s="38" t="s">
+      <c r="H3" s="42"/>
+      <c r="J3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -1796,12 +1842,12 @@
       <c r="H4" s="4">
         <v>4</v>
       </c>
-      <c r="J4" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
+      <c r="J4" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -1878,20 +1924,20 @@
       <c r="H7" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="H9" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="H9" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
@@ -1908,7 +1954,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>8</v>
@@ -2000,20 +2046,20 @@
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
+      <c r="A15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
       <c r="H15" s="13">
         <f>SUM(H11:H13)</f>
         <v>7500</v>
       </c>
       <c r="I15" s="46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15" s="47"/>
       <c r="K15" s="47"/>
@@ -2043,20 +2089,20 @@
         <v>7500</v>
       </c>
       <c r="I16" s="49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J16" s="50"/>
       <c r="K16" s="50"/>
       <c r="L16" s="51"/>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
+      <c r="A18" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -2073,15 +2119,15 @@
         <v>6</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
+        <v>22</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
@@ -2156,23 +2202,23 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
+      <c r="A24" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
       <c r="H24" s="16">
         <f>SUM(H20:H22)</f>
         <v>7500</v>
       </c>
-      <c r="I24" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
+      <c r="I24" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="29" t="s">
@@ -2202,12 +2248,12 @@
         <f>SUM(B25:F25)</f>
         <v>7500</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="32">
         <f>SUMPRODUCT(B11:E13,B20:E22)</f>
         <v>22000</v>
       </c>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2232,4 +2278,780 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9052BBB0-D364-495E-ACF9-D653BDE5953C}">
+  <dimension ref="A1:S25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25:K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="34"/>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="42"/>
+      <c r="J3" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21">
+        <v>3000</v>
+      </c>
+      <c r="H4" s="4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="21">
+        <v>2000</v>
+      </c>
+      <c r="H5" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="23">
+        <v>0</v>
+      </c>
+      <c r="G6" s="25">
+        <v>2500</v>
+      </c>
+      <c r="H6" s="26">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="11">
+        <v>2500</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="H9" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="N9" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3">
+        <f>(0+H4)</f>
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <f>(0.4+H4)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D11" s="3">
+        <f>(0.5+H4)</f>
+        <v>4.5</v>
+      </c>
+      <c r="E11" s="4">
+        <f>(1+H4)</f>
+        <v>5</v>
+      </c>
+      <c r="F11" s="4">
+        <f>(0+H4)</f>
+        <v>4</v>
+      </c>
+      <c r="H11" s="6">
+        <v>3000</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="3">
+        <f>B11</f>
+        <v>4</v>
+      </c>
+      <c r="P11" s="3">
+        <f>C11</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>D11</f>
+        <v>4.5</v>
+      </c>
+      <c r="R11" s="4">
+        <f>E11</f>
+        <v>5</v>
+      </c>
+      <c r="S11" s="4">
+        <f>F11</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3">
+        <f>(1+H5)</f>
+        <v>5.5</v>
+      </c>
+      <c r="C12" s="3">
+        <f>(0+H5)</f>
+        <v>4.5</v>
+      </c>
+      <c r="D12" s="3">
+        <f>(0.8+H5)</f>
+        <v>5.3</v>
+      </c>
+      <c r="E12" s="4">
+        <f>(0.6+H5)</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F12" s="4">
+        <f>(0+H5)</f>
+        <v>4.5</v>
+      </c>
+      <c r="H12" s="6">
+        <v>2000</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3">
+        <f>B12</f>
+        <v>5.5</v>
+      </c>
+      <c r="P12" s="3">
+        <f>C12</f>
+        <v>4.5</v>
+      </c>
+      <c r="Q12" s="3">
+        <f>D12</f>
+        <v>5.3</v>
+      </c>
+      <c r="R12" s="4">
+        <f>E12</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S12" s="4">
+        <f>F12</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="8">
+        <f>(0.5+H6)</f>
+        <v>4.7</v>
+      </c>
+      <c r="C13" s="8">
+        <f>(0.5+H6)</f>
+        <v>4.7</v>
+      </c>
+      <c r="D13" s="8">
+        <f>(0+H6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="E13" s="9">
+        <f>(0.8+H6)</f>
+        <v>5</v>
+      </c>
+      <c r="F13" s="9">
+        <f>(0+H6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>2500</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="8">
+        <f>B13</f>
+        <v>4.7</v>
+      </c>
+      <c r="P13" s="8">
+        <f>C13</f>
+        <v>4.7</v>
+      </c>
+      <c r="Q13" s="8">
+        <f>D13</f>
+        <v>4.2</v>
+      </c>
+      <c r="R13" s="9">
+        <f>E13</f>
+        <v>5</v>
+      </c>
+      <c r="S13" s="9">
+        <f>F13</f>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="H15" s="13">
+        <f>SUM(H11:H13)</f>
+        <v>7500</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="48"/>
+      <c r="N15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="12">
+        <v>2500</v>
+      </c>
+      <c r="H16" s="14">
+        <f>SUM(B16:F16)</f>
+        <v>7500</v>
+      </c>
+      <c r="I16" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="51"/>
+      <c r="N16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" s="11">
+        <v>1000</v>
+      </c>
+      <c r="P16" s="11">
+        <v>2000</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>1000</v>
+      </c>
+      <c r="R16" s="12">
+        <v>1000</v>
+      </c>
+      <c r="S16" s="12">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="N18" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="17">
+        <f>SUM(B20:F20)</f>
+        <v>3000</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
+        <f>B20</f>
+        <v>1000</v>
+      </c>
+      <c r="P20" s="3">
+        <f>C20</f>
+        <v>2000</v>
+      </c>
+      <c r="Q20" s="3">
+        <f>D20</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="4">
+        <f>E20</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <f>F20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2000</v>
+      </c>
+      <c r="H21" s="17">
+        <f>SUM(B21:F21)</f>
+        <v>2000</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
+        <f>B21</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <f>C21</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <f>D21</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="4">
+        <f>E21</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
+        <f>F21</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="9">
+        <v>500</v>
+      </c>
+      <c r="H22" s="17">
+        <f>SUM(B22:F22)</f>
+        <v>2500</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="8">
+        <f>B22</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="8">
+        <f>C22</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="8">
+        <f>D22</f>
+        <v>1000</v>
+      </c>
+      <c r="R22" s="9">
+        <f>E22</f>
+        <v>1000</v>
+      </c>
+      <c r="S22" s="9">
+        <f>F22</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A24" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="H24" s="16">
+        <f>SUM(H20:H22)</f>
+        <v>7500</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="N24" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A25" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="18">
+        <f>SUM(B20:B22)</f>
+        <v>1000</v>
+      </c>
+      <c r="C25" s="18">
+        <f>SUM(C20:C22)</f>
+        <v>2000</v>
+      </c>
+      <c r="D25" s="18">
+        <f>SUM(D20:D22)</f>
+        <v>1000</v>
+      </c>
+      <c r="E25" s="18">
+        <f>SUM(E20:E22)</f>
+        <v>1000</v>
+      </c>
+      <c r="F25" s="18">
+        <f>SUM(F20:F22)</f>
+        <v>2500</v>
+      </c>
+      <c r="H25" s="15">
+        <f>SUM(B25:F25)</f>
+        <v>7500</v>
+      </c>
+      <c r="I25" s="32">
+        <f>SUMPRODUCT(B11:E13,B20:E22)</f>
+        <v>22000</v>
+      </c>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="N25" s="52">
+        <f>SUMPRODUCT(O11:S13,O20:S22)</f>
+        <v>33100</v>
+      </c>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="N18:S18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/1_Transportation-Problem_LPP/src/Transportation-Problem_LPP/2_MS-Exel_Solver-Results_XLSX-FILE/Transportation-Problem_LPP.xlsx
+++ b/1_Transportation-Problem_LPP/src/Transportation-Problem_LPP/2_MS-Exel_Solver-Results_XLSX-FILE/Transportation-Problem_LPP.xlsx
@@ -5,119 +5,187 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carpe Tonus\GitHub Repositories\2022-Q4-4_MATH_operations-research\1_Transportation-Problem_LPP\src\2023-01-04\Transportation-Problem_LPP\2_MS-Exel_Solver-Results_XLSX-FILE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carpe Tonus\GitHub Repositories\2022-Q4-4_MATH_operations-research\1_Transportation-Problem_LPP\src\2023-01-04 (2)\Transportation-Problem_LPP\2_MS-Exel_Solver-Results_XLSX-FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B7A0A5-D0A3-403B-9879-461873190F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3DAD4C-0C01-4BEA-9E2A-B4B2A605CC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{5069B475-95CF-4AFB-8FD9-7009343AD4F0}"/>
+    <workbookView xWindow="-38520" yWindow="-11595" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{5069B475-95CF-4AFB-8FD9-7009343AD4F0}"/>
   </bookViews>
   <sheets>
     <sheet name="0_Zeszyt (TP-n)" sheetId="3" r:id="rId1"/>
-    <sheet name="1_Bez-Magazynu" sheetId="1" r:id="rId2"/>
-    <sheet name="2_Z-Magazynem (+kt)" sheetId="2" r:id="rId3"/>
-    <sheet name="3_Z-Magazynem (+kt +f-cja celu)" sheetId="4" r:id="rId4"/>
+    <sheet name="1.1_Bez-Magazynu (bkt)" sheetId="1" r:id="rId2"/>
+    <sheet name="1.2_Z-Magazynem (bkt)" sheetId="5" r:id="rId3"/>
+    <sheet name="2.1_Z-Magazynem (kt)" sheetId="2" r:id="rId4"/>
+    <sheet name="2.2_Z-Magazynem (kt+fc)" sheetId="4" r:id="rId5"/>
+    <sheet name="3_Z-Magazynem (kt+2fc)" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'1_Bez-Magazynu'!$B$20:$E$22</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">'2_Z-Magazynem (+kt)'!$B$20:$F$22</definedName>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">'3_Z-Magazynem (+kt +f-cja celu)'!$B$20:$F$22</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'1.1_Bez-Magazynu (bkt)'!$B$20:$E$22</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'1.2_Z-Magazynem (bkt)'!$B$20:$F$22</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'2.1_Z-Magazynem (kt)'!$B$20:$F$22</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'2.2_Z-Magazynem (kt+fc)'!$B$20:$F$22</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">'3_Z-Magazynem (kt+2fc)'!$B$20:$F$22</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'1_Bez-Magazynu'!$B$25:$E$25</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'2_Z-Magazynem (+kt)'!$B$25:$F$25</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'3_Z-Magazynem (+kt +f-cja celu)'!$B$25:$F$25</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'1_Bez-Magazynu'!$G$20:$G$22</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'2_Z-Magazynem (+kt)'!$H$20:$H$22</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'3_Z-Magazynem (+kt +f-cja celu)'!$H$20:$H$22</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'1.1_Bez-Magazynu (bkt)'!$B$25:$E$25</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'1.2_Z-Magazynem (bkt)'!$B$25:$F$25</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'2.1_Z-Magazynem (kt)'!$B$25:$F$25</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'2.2_Z-Magazynem (kt+fc)'!$B$25:$F$25</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'3_Z-Magazynem (kt+2fc)'!$B$25:$F$25</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'1.1_Bez-Magazynu (bkt)'!$G$20:$G$22</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'1.2_Z-Magazynem (bkt)'!$H$20:$H$22</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'2.1_Z-Magazynem (kt)'!$H$20:$H$22</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'2.2_Z-Magazynem (kt+fc)'!$H$20:$H$22</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'3_Z-Magazynem (kt+2fc)'!$H$20:$H$22</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'1_Bez-Magazynu'!$H$25</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">'2_Z-Magazynem (+kt)'!$I$25</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">'3_Z-Magazynem (+kt +f-cja celu)'!$I$25</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'1.1_Bez-Magazynu (bkt)'!$H$25</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'1.2_Z-Magazynem (bkt)'!$I$25</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'2.1_Z-Magazynem (kt)'!$I$25</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'2.2_Z-Magazynem (kt+fc)'!$I$25</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'3_Z-Magazynem (kt+2fc)'!$I$25</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'1_Bez-Magazynu'!$B$16:$E$16</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'2_Z-Magazynem (+kt)'!$B$16:$F$16</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">'3_Z-Magazynem (+kt +f-cja celu)'!$B$16:$F$16</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'1_Bez-Magazynu'!$G$11:$G$13</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'2_Z-Magazynem (+kt)'!$H$11:$H$13</definedName>
-    <definedName name="solver_rhs2" localSheetId="3" hidden="1">'3_Z-Magazynem (+kt +f-cja celu)'!$H$11:$H$13</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'1.1_Bez-Magazynu (bkt)'!$B$16:$E$16</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'1.2_Z-Magazynem (bkt)'!$B$16:$F$16</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">'2.1_Z-Magazynem (kt)'!$B$16:$F$16</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">'2.2_Z-Magazynem (kt+fc)'!$B$16:$F$16</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">'3_Z-Magazynem (kt+2fc)'!$B$16:$F$16</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'1.1_Bez-Magazynu (bkt)'!$G$11:$G$13</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'1.2_Z-Magazynem (bkt)'!$H$11:$H$13</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">'2.1_Z-Magazynem (kt)'!$H$11:$H$13</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">'2.2_Z-Magazynem (kt+fc)'!$H$11:$H$13</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">'3_Z-Magazynem (kt+2fc)'!$H$11:$H$13</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -129,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="33">
   <si>
     <t>ZADANIE TRANSPORTOWE [ TRANSPORTATION PROBLEM ]</t>
   </si>
@@ -205,6 +273,30 @@
   <si>
     <t>Zapotrzebowanie odbiorców (kg)</t>
   </si>
+  <si>
+    <t>[ ilość przewieziona - bez uwzględnienia kosztów produkcji ]</t>
+  </si>
+  <si>
+    <t>[ ilość przewieziona - z uwzględnienieniem kosztów produkcji ]</t>
+  </si>
+  <si>
+    <t>Łączny koszt przewozu [ uwzględniając koszty transportu ]</t>
+  </si>
+  <si>
+    <t>&lt; oraz przewiezionej ilości przy uwzględnieniu KP &gt;</t>
+  </si>
+  <si>
+    <t>&lt; oraz przewiezionej ilości bez uwzględnienia KP &gt;</t>
+  </si>
+  <si>
+    <t>Obliczenia pomocnicze [ bez względnienia KP ]</t>
+  </si>
+  <si>
+    <t>Koszty transportu [w zł za kg ] &lt; z uwzględnieniem KP &gt;</t>
+  </si>
+  <si>
+    <t>Koszty transportu [w zł za kg ] &lt; bez uwzględnienia KP &gt;</t>
+  </si>
 </sst>
 </file>
 
@@ -228,7 +320,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +363,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="35">
     <border>
@@ -734,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -817,27 +915,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -856,6 +954,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -865,25 +981,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1276,24 +1380,24 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24:J24"/>
+      <selection activeCell="H25" sqref="H25:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="39" t="s">
@@ -1302,7 +1406,7 @@
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
       <c r="E2" s="40"/>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="41" t="s">
@@ -1316,7 +1420,7 @@
       <c r="L2" s="31"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="34"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1329,7 +1433,7 @@
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="34"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="42"/>
       <c r="I3" s="31" t="s">
         <v>10</v>
@@ -1433,13 +1537,13 @@
       <c r="G7" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
       <c r="G9" s="31" t="s">
         <v>14</v>
       </c>
@@ -1527,23 +1631,23 @@
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
       <c r="G15" s="13">
         <f>SUM(G11:G13)</f>
         <v>7500</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="36"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
@@ -1708,17 +1812,15 @@
         <f>SUM(B25:E25)</f>
         <v>5000</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="30">
         <f>SUMPRODUCT(B11:E13,B20:E22)</f>
         <v>800</v>
       </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="I3:L3"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="G19:K19"/>
     <mergeCell ref="A24:E24"/>
@@ -1735,12 +1837,539 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5E9B0D-EDBB-4B92-B9D1-B2C5315F8566}">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25:K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="33"/>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="51"/>
+      <c r="H3" s="42"/>
+      <c r="J3" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21">
+        <v>3000</v>
+      </c>
+      <c r="H4" s="4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="21">
+        <v>2000</v>
+      </c>
+      <c r="H5" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="23">
+        <v>0</v>
+      </c>
+      <c r="G6" s="25">
+        <v>2500</v>
+      </c>
+      <c r="H6" s="26">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="11">
+        <v>2500</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="H9" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="H15" s="13">
+        <f>SUM(H11:H13)</f>
+        <v>7500</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="45"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="12">
+        <v>2500</v>
+      </c>
+      <c r="H16" s="14">
+        <f>SUM(B16:F16)</f>
+        <v>7500</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="48"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2000</v>
+      </c>
+      <c r="H20" s="17">
+        <f>SUM(B20:F20)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="17">
+        <f>SUM(B21:F21)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="9">
+        <v>500</v>
+      </c>
+      <c r="H22" s="17">
+        <f>SUM(B22:F22)</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="H24" s="16">
+        <f>SUM(H20:H22)</f>
+        <v>7500</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="18">
+        <f>SUM(B20:B22)</f>
+        <v>1000</v>
+      </c>
+      <c r="C25" s="18">
+        <f>SUM(C20:C22)</f>
+        <v>2000</v>
+      </c>
+      <c r="D25" s="18">
+        <f>SUM(D20:D22)</f>
+        <v>1000</v>
+      </c>
+      <c r="E25" s="18">
+        <f>SUM(E20:E22)</f>
+        <v>1000</v>
+      </c>
+      <c r="F25" s="18">
+        <f>SUM(F20:F22)</f>
+        <v>2500</v>
+      </c>
+      <c r="H25" s="15">
+        <f>SUM(B25:F25)</f>
+        <v>7500</v>
+      </c>
+      <c r="I25" s="30">
+        <f>SUMPRODUCT(B11:E13,B20:E22)</f>
+        <v>800</v>
+      </c>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00FDDEF-5E10-42E4-BD49-5068666644FA}">
   <dimension ref="A1:M25"/>
   <sheetViews>
@@ -1754,19 +2383,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="39" t="s">
@@ -1774,11 +2403,11 @@
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
-      <c r="E2" s="43"/>
+      <c r="E2" s="49"/>
       <c r="F2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="50" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="41" t="s">
@@ -1792,7 +2421,7 @@
       <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="34"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1808,7 +2437,7 @@
       <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="45"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="42"/>
       <c r="J3" s="31" t="s">
         <v>10</v>
@@ -1924,14 +2553,14 @@
       <c r="H7" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
       <c r="H9" s="31" t="s">
         <v>14</v>
       </c>
@@ -2046,24 +2675,24 @@
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
       <c r="H15" s="13">
         <f>SUM(H11:H13)</f>
         <v>7500</v>
       </c>
-      <c r="I15" s="46" t="s">
+      <c r="I15" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="48"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="45"/>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
@@ -2088,12 +2717,12 @@
         <f>SUM(B16:F16)</f>
         <v>7500</v>
       </c>
-      <c r="I16" s="49" t="s">
+      <c r="I16" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="51"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="48"/>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="31" t="s">
@@ -2248,12 +2877,12 @@
         <f>SUM(B25:F25)</f>
         <v>7500</v>
       </c>
-      <c r="I25" s="32">
+      <c r="I25" s="30">
         <f>SUMPRODUCT(B11:E13,B20:E22)</f>
         <v>22000</v>
       </c>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2280,11 +2909,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9052BBB0-D364-495E-ACF9-D653BDE5953C}">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I25" sqref="I25:K25"/>
     </sheetView>
   </sheetViews>
@@ -2295,19 +2924,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="39" t="s">
@@ -2315,11 +2944,11 @@
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
-      <c r="E2" s="43"/>
+      <c r="E2" s="49"/>
       <c r="F2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="50" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="41" t="s">
@@ -2333,7 +2962,7 @@
       <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="34"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -2349,7 +2978,7 @@
       <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="45"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="42"/>
       <c r="J3" s="31" t="s">
         <v>10</v>
@@ -2465,28 +3094,28 @@
       <c r="H7" s="12"/>
     </row>
     <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
       <c r="H9" s="31" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
       <c r="K9" s="31"/>
-      <c r="N9" s="30" t="s">
+      <c r="N9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
@@ -2556,23 +3185,23 @@
         <v>3</v>
       </c>
       <c r="O11" s="3">
-        <f>B11</f>
+        <f t="shared" ref="O11:S13" si="0">B11</f>
         <v>4</v>
       </c>
       <c r="P11" s="3">
-        <f>C11</f>
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="Q11" s="3">
-        <f>D11</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="R11" s="4">
-        <f>E11</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="S11" s="4">
-        <f>F11</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -2607,23 +3236,23 @@
         <v>4</v>
       </c>
       <c r="O12" s="3">
-        <f>B12</f>
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
       <c r="P12" s="3">
-        <f>C12</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="Q12" s="3">
-        <f>D12</f>
+        <f t="shared" si="0"/>
         <v>5.3</v>
       </c>
       <c r="R12" s="4">
-        <f>E12</f>
+        <f t="shared" si="0"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="S12" s="4">
-        <f>F12</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
     </row>
@@ -2658,54 +3287,54 @@
         <v>5</v>
       </c>
       <c r="O13" s="8">
-        <f>B13</f>
+        <f t="shared" si="0"/>
         <v>4.7</v>
       </c>
       <c r="P13" s="8">
-        <f>C13</f>
+        <f t="shared" si="0"/>
         <v>4.7</v>
       </c>
       <c r="Q13" s="8">
-        <f>D13</f>
+        <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
       <c r="R13" s="9">
-        <f>E13</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="S13" s="9">
-        <f>F13</f>
+        <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
       <c r="H15" s="13">
         <f>SUM(H11:H13)</f>
         <v>7500</v>
       </c>
-      <c r="I15" s="46" t="s">
+      <c r="I15" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="48"/>
-      <c r="N15" s="30" t="s">
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="45"/>
+      <c r="N15" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
     </row>
     <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
@@ -2730,12 +3359,12 @@
         <f>SUM(B16:F16)</f>
         <v>7500</v>
       </c>
-      <c r="I16" s="49" t="s">
+      <c r="I16" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="51"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="48"/>
       <c r="N16" s="10" t="s">
         <v>7</v>
       </c>
@@ -2756,22 +3385,22 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="N18" s="30" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="N18" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -2841,23 +3470,23 @@
         <v>3</v>
       </c>
       <c r="O20" s="3">
-        <f>B20</f>
+        <f t="shared" ref="O20:S22" si="1">B20</f>
         <v>1000</v>
       </c>
       <c r="P20" s="3">
-        <f>C20</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="Q20" s="3">
-        <f>D20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R20" s="4">
-        <f>E20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S20" s="4">
-        <f>F20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2888,23 +3517,23 @@
         <v>4</v>
       </c>
       <c r="O21" s="3">
-        <f>B21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P21" s="3">
-        <f>C21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q21" s="3">
-        <f>D21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R21" s="4">
-        <f>E21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S21" s="4">
-        <f>F21</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
     </row>
@@ -2935,23 +3564,23 @@
         <v>5</v>
       </c>
       <c r="O22" s="8">
-        <f>B22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P22" s="8">
-        <f>C22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q22" s="8">
-        <f>D22</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="R22" s="9">
-        <f>E22</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="S22" s="9">
-        <f>F22</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
@@ -3010,12 +3639,12 @@
         <f>SUM(B25:F25)</f>
         <v>7500</v>
       </c>
-      <c r="I25" s="32">
+      <c r="I25" s="30">
         <f>SUMPRODUCT(B11:E13,B20:E22)</f>
         <v>22000</v>
       </c>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
       <c r="N25" s="52">
         <f>SUMPRODUCT(O11:S13,O20:S22)</f>
         <v>33100</v>
@@ -3054,4 +3683,996 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77655FDA-ED4F-4F17-A760-41FBD87C16B9}">
+  <dimension ref="A1:AA25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25:N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" customWidth="1"/>
+    <col min="13" max="13" width="9.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+    </row>
+    <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="O2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="V2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3" s="33"/>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="51"/>
+      <c r="H3" s="42"/>
+      <c r="J3" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="5"/>
+      <c r="W3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21">
+        <v>3000</v>
+      </c>
+      <c r="H4" s="4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="O4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" ref="P4:T6" si="0">B11</f>
+        <v>4</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R4" s="3">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="S4" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="21">
+        <v>2000</v>
+      </c>
+      <c r="H5" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" si="0"/>
+        <v>5.3</v>
+      </c>
+      <c r="S5" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" s="3">
+        <v>1</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="23">
+        <v>0</v>
+      </c>
+      <c r="G6" s="25">
+        <v>2500</v>
+      </c>
+      <c r="H6" s="26">
+        <v>4.2</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" si="0"/>
+        <v>4.7</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="0"/>
+        <v>4.7</v>
+      </c>
+      <c r="R6" s="8">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="S6" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="T6" s="9">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="W6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="X6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="11">
+        <v>2500</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="O8" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="V8" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+    </row>
+    <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="H9" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="O9" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="V9" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="5"/>
+      <c r="P10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V10" s="5"/>
+      <c r="W10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3">
+        <f>(0+H4)</f>
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <f>(0.4+H4)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D11" s="3">
+        <f>(0.5+H4)</f>
+        <v>4.5</v>
+      </c>
+      <c r="E11" s="4">
+        <f>(1+H4)</f>
+        <v>5</v>
+      </c>
+      <c r="F11" s="4">
+        <f>(0+H4)</f>
+        <v>4</v>
+      </c>
+      <c r="H11" s="6">
+        <v>3000</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" ref="P11:T13" si="1">B20</f>
+        <v>1000</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="W11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3">
+        <f>(1+H5)</f>
+        <v>5.5</v>
+      </c>
+      <c r="C12" s="3">
+        <f>(0+H5)</f>
+        <v>4.5</v>
+      </c>
+      <c r="D12" s="3">
+        <f>(0.8+H5)</f>
+        <v>5.3</v>
+      </c>
+      <c r="E12" s="4">
+        <f>(0.6+H5)</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F12" s="4">
+        <f>(0+H5)</f>
+        <v>4.5</v>
+      </c>
+      <c r="H12" s="6">
+        <v>2000</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="8">
+        <f>(0.5+H6)</f>
+        <v>4.7</v>
+      </c>
+      <c r="C13" s="8">
+        <f>(0.5+H6)</f>
+        <v>4.7</v>
+      </c>
+      <c r="D13" s="8">
+        <f>(0+H6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="E13" s="9">
+        <f>(0.8+H6)</f>
+        <v>5</v>
+      </c>
+      <c r="F13" s="9">
+        <f>(0+H6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>2500</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="8">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="S13" s="9">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="T13" s="9">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="W13" s="8">
+        <v>0</v>
+      </c>
+      <c r="X13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>1000</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="H15" s="13">
+        <f>SUM(H11:H13)</f>
+        <v>7500</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="45"/>
+      <c r="O15" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="V15" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+    </row>
+    <row r="16" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="12">
+        <v>2500</v>
+      </c>
+      <c r="H16" s="14">
+        <f>SUM(B16:F16)</f>
+        <v>7500</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="48"/>
+      <c r="O16" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="V16" s="54">
+        <f>SUMPRODUCT(W4:Z6,W11:Z13)</f>
+        <v>800</v>
+      </c>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="O17" s="52">
+        <f>SUMPRODUCT(P4:T6,P11:T13)</f>
+        <v>33100</v>
+      </c>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+    </row>
+    <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="V18" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="V19" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="17">
+        <f>SUM(B20:F20)</f>
+        <v>3000</v>
+      </c>
+      <c r="V20" s="53">
+        <f>SUMPRODUCT(P4:T6,W11:AA13)</f>
+        <v>32300</v>
+      </c>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="53"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2000</v>
+      </c>
+      <c r="H21" s="17">
+        <f>SUM(B21:F21)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="9">
+        <v>500</v>
+      </c>
+      <c r="H22" s="17">
+        <f>SUM(B22:F22)</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A24" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="H24" s="16">
+        <f>SUM(H20:H22)</f>
+        <v>7500</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A25" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="18">
+        <f>SUM(B20:B22)</f>
+        <v>1000</v>
+      </c>
+      <c r="C25" s="18">
+        <f>SUM(C20:C22)</f>
+        <v>2000</v>
+      </c>
+      <c r="D25" s="18">
+        <f>SUM(D20:D22)</f>
+        <v>1000</v>
+      </c>
+      <c r="E25" s="18">
+        <f>SUM(E20:E22)</f>
+        <v>1000</v>
+      </c>
+      <c r="F25" s="18">
+        <f>SUM(F20:F22)</f>
+        <v>2500</v>
+      </c>
+      <c r="H25" s="15">
+        <f>SUM(B25:F25)</f>
+        <v>7500</v>
+      </c>
+      <c r="I25" s="30">
+        <f>SUMPRODUCT(B11:E13,B20:E22)</f>
+        <v>22000</v>
+      </c>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="O16:T16"/>
+    <mergeCell ref="V18:AA18"/>
+    <mergeCell ref="V19:AA19"/>
+    <mergeCell ref="V16:AA16"/>
+    <mergeCell ref="V15:AA15"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="O17:T17"/>
+    <mergeCell ref="V8:AA8"/>
+    <mergeCell ref="V9:AA9"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="V20:AA20"/>
+    <mergeCell ref="O9:T9"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="O8:T8"/>
+    <mergeCell ref="O15:T15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/1_Transportation-Problem_LPP/src/Transportation-Problem_LPP/2_MS-Exel_Solver-Results_XLSX-FILE/Transportation-Problem_LPP.xlsx
+++ b/1_Transportation-Problem_LPP/src/Transportation-Problem_LPP/2_MS-Exel_Solver-Results_XLSX-FILE/Transportation-Problem_LPP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carpe Tonus\GitHub Repositories\2022-Q4-4_MATH_operations-research\1_Transportation-Problem_LPP\src\2023-01-04 (2)\Transportation-Problem_LPP\2_MS-Exel_Solver-Results_XLSX-FILE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carpe Tonus\GitHub Repositories\2022-Q4-4_MATH_operations-research\1_Transportation-Problem_LPP\src\2023-01-04 (3)\Transportation-Problem_LPP\2_MS-Exel_Solver-Results_XLSX-FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3DAD4C-0C01-4BEA-9E2A-B4B2A605CC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0185A11F-D91F-4895-9419-BB35DD096310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-11595" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{5069B475-95CF-4AFB-8FD9-7009343AD4F0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5069B475-95CF-4AFB-8FD9-7009343AD4F0}"/>
   </bookViews>
   <sheets>
     <sheet name="0_Zeszyt (TP-n)" sheetId="3" r:id="rId1"/>
@@ -915,12 +915,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -933,9 +936,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -954,6 +954,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -963,31 +981,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1022,17 +1022,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>298449</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28176</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>158391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Obraz 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D1F14A-7695-24BB-286A-FCB4FC56A0A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D44D1D-53F8-6230-9DD8-D89DEF23134C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1055,7 +1055,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="3956049" cy="3895326"/>
+          <a:ext cx="3060700" cy="4209691"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1366,7 +1366,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB8ADA3-9B4E-4EC8-91DC-1BE34F41EF1C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -1386,18 +1388,18 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="39" t="s">
@@ -1406,7 +1408,7 @@
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
       <c r="E2" s="40"/>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="33" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="41" t="s">
@@ -1420,7 +1422,7 @@
       <c r="L2" s="31"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1433,7 +1435,7 @@
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="33"/>
+      <c r="F3" s="34"/>
       <c r="G3" s="42"/>
       <c r="I3" s="31" t="s">
         <v>10</v>
@@ -1537,13 +1539,13 @@
       <c r="G7" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
       <c r="G9" s="31" t="s">
         <v>14</v>
       </c>
@@ -1631,23 +1633,23 @@
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
       <c r="G15" s="13">
         <f>SUM(G11:G13)</f>
         <v>7500</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
@@ -1812,15 +1814,17 @@
         <f>SUM(B25:E25)</f>
         <v>5000</v>
       </c>
-      <c r="H25" s="30">
+      <c r="H25" s="32">
         <f>SUMPRODUCT(B11:E13,B20:E22)</f>
         <v>800</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I3:L3"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="G19:K19"/>
     <mergeCell ref="A24:E24"/>
@@ -1837,8 +1841,6 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="I3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1858,19 +1860,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="39" t="s">
@@ -1878,11 +1880,11 @@
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
-      <c r="E2" s="49"/>
+      <c r="E2" s="46"/>
       <c r="F2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="47" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="41" t="s">
@@ -1896,7 +1898,7 @@
       <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1912,7 +1914,7 @@
       <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="42"/>
       <c r="J3" s="31" t="s">
         <v>10</v>
@@ -2028,14 +2030,14 @@
       <c r="H7" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
       <c r="H9" s="31" t="s">
         <v>14</v>
       </c>
@@ -2135,24 +2137,24 @@
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
       <c r="H15" s="13">
         <f>SUM(H11:H13)</f>
         <v>7500</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="45"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="51"/>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
@@ -2177,12 +2179,12 @@
         <f>SUM(B16:F16)</f>
         <v>7500</v>
       </c>
-      <c r="I16" s="46" t="s">
+      <c r="I16" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="48"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="45"/>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="31" t="s">
@@ -2337,15 +2339,20 @@
         <f>SUM(B25:F25)</f>
         <v>7500</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25" s="32">
         <f>SUMPRODUCT(B11:E13,B20:E22)</f>
         <v>800</v>
       </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
     <mergeCell ref="I16:L16"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A3"/>
@@ -2359,11 +2366,6 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="I15:L15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2383,19 +2385,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="39" t="s">
@@ -2403,11 +2405,11 @@
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
-      <c r="E2" s="49"/>
+      <c r="E2" s="46"/>
       <c r="F2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="47" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="41" t="s">
@@ -2421,7 +2423,7 @@
       <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,7 +2439,7 @@
       <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="42"/>
       <c r="J3" s="31" t="s">
         <v>10</v>
@@ -2553,14 +2555,14 @@
       <c r="H7" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
       <c r="H9" s="31" t="s">
         <v>14</v>
       </c>
@@ -2675,24 +2677,24 @@
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
       <c r="H15" s="13">
         <f>SUM(H11:H13)</f>
         <v>7500</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="45"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="51"/>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
@@ -2717,12 +2719,12 @@
         <f>SUM(B16:F16)</f>
         <v>7500</v>
       </c>
-      <c r="I16" s="46" t="s">
+      <c r="I16" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="48"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="45"/>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="31" t="s">
@@ -2877,26 +2879,15 @@
         <f>SUM(B25:F25)</f>
         <v>7500</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25" s="32">
         <f>SUMPRODUCT(B11:E13,B20:E22)</f>
         <v>22000</v>
       </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="I24:K24"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:G3"/>
@@ -2904,6 +2895,17 @@
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="J3:M3"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2924,19 +2926,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="39" t="s">
@@ -2944,11 +2946,11 @@
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
-      <c r="E2" s="49"/>
+      <c r="E2" s="46"/>
       <c r="F2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="47" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="41" t="s">
@@ -2962,7 +2964,7 @@
       <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -2978,7 +2980,7 @@
       <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="42"/>
       <c r="J3" s="31" t="s">
         <v>10</v>
@@ -3094,28 +3096,28 @@
       <c r="H7" s="12"/>
     </row>
     <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
       <c r="H9" s="31" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
       <c r="K9" s="31"/>
-      <c r="N9" s="36" t="s">
+      <c r="N9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
@@ -3309,32 +3311,32 @@
     </row>
     <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
       <c r="H15" s="13">
         <f>SUM(H11:H13)</f>
         <v>7500</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="45"/>
-      <c r="N15" s="36" t="s">
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="51"/>
+      <c r="N15" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
     </row>
     <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
@@ -3359,12 +3361,12 @@
         <f>SUM(B16:F16)</f>
         <v>7500</v>
       </c>
-      <c r="I16" s="46" t="s">
+      <c r="I16" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="48"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="45"/>
       <c r="N16" s="10" t="s">
         <v>7</v>
       </c>
@@ -3385,22 +3387,22 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="N18" s="36" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="N18" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -3639,12 +3641,12 @@
         <f>SUM(B25:F25)</f>
         <v>7500</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25" s="32">
         <f>SUMPRODUCT(B11:E13,B20:E22)</f>
         <v>22000</v>
       </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
       <c r="N25" s="52">
         <f>SUMPRODUCT(O11:S13,O20:S22)</f>
         <v>33100</v>
@@ -3657,6 +3659,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="N18:S18"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="N24:S24"/>
     <mergeCell ref="N25:S25"/>
@@ -3673,13 +3682,6 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="I15:L15"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="N15:S15"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="N18:S18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3689,7 +3691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77655FDA-ED4F-4F17-A760-41FBD87C16B9}">
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I25" sqref="I25:N25"/>
     </sheetView>
   </sheetViews>
@@ -3701,19 +3703,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="39" t="s">
@@ -3721,11 +3723,11 @@
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
-      <c r="E2" s="49"/>
+      <c r="E2" s="46"/>
       <c r="F2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="47" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="41" t="s">
@@ -3737,25 +3739,25 @@
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
       <c r="M2" s="31"/>
-      <c r="O2" s="36" t="s">
+      <c r="O2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="V2" s="36" t="s">
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="V2" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -3771,7 +3773,7 @@
       <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="42"/>
       <c r="J3" s="31" t="s">
         <v>10</v>
@@ -4060,36 +4062,36 @@
       <c r="AA8" s="31"/>
     </row>
     <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
       <c r="H9" s="31" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
       <c r="K9" s="31"/>
-      <c r="O9" s="36" t="s">
+      <c r="O9" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="V9" s="36" t="s">
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="V9" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
@@ -4353,24 +4355,24 @@
     </row>
     <row r="14" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
       <c r="H15" s="13">
         <f>SUM(H11:H13)</f>
         <v>7500</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="45"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="51"/>
       <c r="O15" s="31" t="s">
         <v>23</v>
       </c>
@@ -4411,12 +4413,12 @@
         <f>SUM(B16:F16)</f>
         <v>7500</v>
       </c>
-      <c r="I16" s="46" t="s">
+      <c r="I16" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="48"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="45"/>
       <c r="O16" s="31" t="s">
         <v>28</v>
       </c>
@@ -4425,15 +4427,15 @@
       <c r="R16" s="31"/>
       <c r="S16" s="31"/>
       <c r="T16" s="31"/>
-      <c r="V16" s="54">
+      <c r="V16" s="53">
         <f>SUMPRODUCT(W4:Z6,W11:Z13)</f>
         <v>800</v>
       </c>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="54"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="O17" s="52">
@@ -4447,14 +4449,14 @@
       <c r="T17" s="52"/>
     </row>
     <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
       <c r="V18" s="31" t="s">
         <v>23</v>
       </c>
@@ -4520,15 +4522,15 @@
         <f>SUM(B20:F20)</f>
         <v>3000</v>
       </c>
-      <c r="V20" s="53">
+      <c r="V20" s="54">
         <f>SUMPRODUCT(P4:T6,W11:AA13)</f>
         <v>32300</v>
       </c>
-      <c r="W20" s="53"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="53"/>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="53"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
@@ -4628,30 +4630,26 @@
         <f>SUM(B25:F25)</f>
         <v>7500</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25" s="32">
         <f>SUMPRODUCT(B11:E13,B20:E22)</f>
         <v>22000</v>
       </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="O16:T16"/>
-    <mergeCell ref="V18:AA18"/>
-    <mergeCell ref="V19:AA19"/>
-    <mergeCell ref="V16:AA16"/>
-    <mergeCell ref="V15:AA15"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="V20:AA20"/>
+    <mergeCell ref="O9:T9"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="O8:T8"/>
+    <mergeCell ref="O15:T15"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="H19:L19"/>
     <mergeCell ref="A24:F24"/>
@@ -4660,18 +4658,22 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="O16:T16"/>
+    <mergeCell ref="V18:AA18"/>
+    <mergeCell ref="V19:AA19"/>
+    <mergeCell ref="V16:AA16"/>
+    <mergeCell ref="V15:AA15"/>
     <mergeCell ref="O17:T17"/>
     <mergeCell ref="V8:AA8"/>
     <mergeCell ref="V9:AA9"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="V20:AA20"/>
-    <mergeCell ref="O9:T9"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="O8:T8"/>
-    <mergeCell ref="O15:T15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1_Transportation-Problem_LPP/src/Transportation-Problem_LPP/2_MS-Exel_Solver-Results_XLSX-FILE/Transportation-Problem_LPP.xlsx
+++ b/1_Transportation-Problem_LPP/src/Transportation-Problem_LPP/2_MS-Exel_Solver-Results_XLSX-FILE/Transportation-Problem_LPP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carpe Tonus\GitHub Repositories\2022-Q4-4_MATH_operations-research\1_Transportation-Problem_LPP\src\2023-01-04 (3)\Transportation-Problem_LPP\2_MS-Exel_Solver-Results_XLSX-FILE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carpe Tonus\GitHub Repositories\2022-Q4-4_MATH_operations-research\1_Transportation-Problem_LPP\src\2023-01-04 (3) [+]\Transportation-Problem_LPP\2_MS-Exel_Solver-Results_XLSX-FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0185A11F-D91F-4895-9419-BB35DD096310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E782F0C-DA3E-4C16-BC14-408471944585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5069B475-95CF-4AFB-8FD9-7009343AD4F0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="5" xr2:uid="{5069B475-95CF-4AFB-8FD9-7009343AD4F0}"/>
   </bookViews>
   <sheets>
     <sheet name="0_Zeszyt (TP-n)" sheetId="3" r:id="rId1"/>
@@ -915,12 +915,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -984,15 +984,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1068,9 +1068,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1108,7 +1108,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1214,7 +1214,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1366,7 +1366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB8ADA3-9B4E-4EC8-91DC-1BE34F41EF1C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1388,15 +1388,15 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
@@ -1414,12 +1414,12 @@
       <c r="G2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="34"/>
@@ -1437,12 +1437,12 @@
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="42"/>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -1466,12 +1466,12 @@
       <c r="G4" s="4">
         <v>4</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -1539,19 +1539,19 @@
       <c r="G7" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="G9" s="31" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="G9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
@@ -1633,13 +1633,13 @@
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
       <c r="G15" s="13">
         <f>SUM(G11:G13)</f>
         <v>7500</v>
@@ -1679,13 +1679,13 @@
       <c r="K16" s="38"/>
     </row>
     <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -1701,13 +1701,13 @@
       <c r="E19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
@@ -1773,22 +1773,22 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
       <c r="G24" s="16">
         <f>SUM(G20:G22)</f>
         <v>5000</v>
       </c>
-      <c r="H24" s="31" t="s">
+      <c r="H24" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="29" t="s">
@@ -1823,12 +1823,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="H24:J24"/>
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A2:A3"/>
@@ -1841,6 +1835,12 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="H24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1860,16 +1860,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
@@ -1890,12 +1890,12 @@
       <c r="H2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="34"/>
@@ -1916,12 +1916,12 @@
       </c>
       <c r="G3" s="48"/>
       <c r="H3" s="42"/>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -1948,12 +1948,12 @@
       <c r="H4" s="4">
         <v>4</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -2030,20 +2030,20 @@
       <c r="H7" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="H9" s="31" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="H9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
@@ -2137,14 +2137,14 @@
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
       <c r="H15" s="13">
         <f>SUM(H11:H13)</f>
         <v>7500</v>
@@ -2187,13 +2187,13 @@
       <c r="L16" s="45"/>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -2212,13 +2212,13 @@
       <c r="F19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="H19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
@@ -2293,23 +2293,23 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
       <c r="H24" s="16">
         <f>SUM(H20:H22)</f>
         <v>7500</v>
       </c>
-      <c r="I24" s="31" t="s">
+      <c r="I24" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="29" t="s">
@@ -2348,11 +2348,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
     <mergeCell ref="I16:L16"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A3"/>
@@ -2366,6 +2361,11 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2385,16 +2385,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
@@ -2415,12 +2415,12 @@
       <c r="H2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="34"/>
@@ -2441,12 +2441,12 @@
       </c>
       <c r="G3" s="48"/>
       <c r="H3" s="42"/>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -2473,12 +2473,12 @@
       <c r="H4" s="4">
         <v>4</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -2555,20 +2555,20 @@
       <c r="H7" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="H9" s="31" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="H9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
@@ -2677,14 +2677,14 @@
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
       <c r="H15" s="13">
         <f>SUM(H11:H13)</f>
         <v>7500</v>
@@ -2727,13 +2727,13 @@
       <c r="L16" s="45"/>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -2752,13 +2752,13 @@
       <c r="F19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="H19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
@@ -2833,23 +2833,23 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
       <c r="H24" s="16">
         <f>SUM(H20:H22)</f>
         <v>7500</v>
       </c>
-      <c r="I24" s="31" t="s">
+      <c r="I24" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="29" t="s">
@@ -2888,6 +2888,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="I24:K24"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:G3"/>
@@ -2895,17 +2906,6 @@
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="J3:M3"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2926,16 +2926,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
@@ -2956,12 +2956,12 @@
       <c r="H2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="34"/>
@@ -2982,12 +2982,12 @@
       </c>
       <c r="G3" s="48"/>
       <c r="H3" s="42"/>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -3014,12 +3014,12 @@
       <c r="H4" s="4">
         <v>4</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -3096,28 +3096,28 @@
       <c r="H7" s="12"/>
     </row>
     <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="H9" s="31" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="H9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="N9" s="30" t="s">
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="N9" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
@@ -3311,14 +3311,14 @@
     </row>
     <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
       <c r="H15" s="13">
         <f>SUM(H11:H13)</f>
         <v>7500</v>
@@ -3329,14 +3329,14 @@
       <c r="J15" s="50"/>
       <c r="K15" s="50"/>
       <c r="L15" s="51"/>
-      <c r="N15" s="30" t="s">
+      <c r="N15" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
@@ -3387,22 +3387,22 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="N18" s="30" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="N18" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -3421,13 +3421,13 @@
       <c r="F19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="H19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
       <c r="N19" s="5"/>
       <c r="O19" s="1" t="s">
         <v>3</v>
@@ -3587,31 +3587,31 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
       <c r="H24" s="16">
         <f>SUM(H20:H22)</f>
         <v>7500</v>
       </c>
-      <c r="I24" s="31" t="s">
+      <c r="I24" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="N24" s="31" t="s">
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="N24" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="29" t="s">
@@ -3659,13 +3659,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="N15:S15"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="N18:S18"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="N24:S24"/>
     <mergeCell ref="N25:S25"/>
@@ -3682,6 +3675,13 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="I15:L15"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="N18:S18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3691,7 +3691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77655FDA-ED4F-4F17-A760-41FBD87C16B9}">
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I25" sqref="I25:N25"/>
     </sheetView>
   </sheetViews>
@@ -3703,16 +3703,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="33" t="s">
@@ -3733,28 +3733,28 @@
       <c r="H2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="O2" s="30" t="s">
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="O2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="V2" s="30" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="V2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="34"/>
@@ -3775,12 +3775,12 @@
       </c>
       <c r="G3" s="48"/>
       <c r="H3" s="42"/>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
       <c r="O3" s="5"/>
       <c r="P3" s="1" t="s">
         <v>3</v>
@@ -3839,12 +3839,12 @@
       <c r="H4" s="4">
         <v>4</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
       <c r="O4" s="6" t="s">
         <v>3</v>
       </c>
@@ -4044,54 +4044,54 @@
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="O8" s="31" t="s">
+      <c r="O8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="V8" s="31" t="s">
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="V8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
     </row>
     <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="H9" s="31" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="H9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="O9" s="30" t="s">
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="O9" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="V9" s="30" t="s">
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="V9" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
@@ -4355,14 +4355,14 @@
     </row>
     <row r="14" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
       <c r="H15" s="13">
         <f>SUM(H11:H13)</f>
         <v>7500</v>
@@ -4373,22 +4373,22 @@
       <c r="J15" s="50"/>
       <c r="K15" s="50"/>
       <c r="L15" s="51"/>
-      <c r="O15" s="31" t="s">
+      <c r="O15" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="V15" s="31" t="s">
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="V15" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
     </row>
     <row r="16" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
@@ -4419,23 +4419,23 @@
       <c r="J16" s="44"/>
       <c r="K16" s="44"/>
       <c r="L16" s="45"/>
-      <c r="O16" s="31" t="s">
+      <c r="O16" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="V16" s="53">
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="V16" s="54">
         <f>SUMPRODUCT(W4:Z6,W11:Z13)</f>
         <v>800</v>
       </c>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="O17" s="52">
@@ -4449,22 +4449,22 @@
       <c r="T17" s="52"/>
     </row>
     <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="V18" s="31" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="V18" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -4483,21 +4483,21 @@
       <c r="F19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="H19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="V19" s="31" t="s">
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="V19" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
@@ -4522,15 +4522,15 @@
         <f>SUM(B20:F20)</f>
         <v>3000</v>
       </c>
-      <c r="V20" s="54">
+      <c r="V20" s="53">
         <f>SUMPRODUCT(P4:T6,W11:AA13)</f>
         <v>32300</v>
       </c>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="53"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
@@ -4581,26 +4581,26 @@
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
       <c r="H24" s="16">
         <f>SUM(H20:H22)</f>
         <v>7500</v>
       </c>
-      <c r="I24" s="31" t="s">
+      <c r="I24" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" s="29" t="s">
@@ -4642,14 +4642,13 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="V20:AA20"/>
-    <mergeCell ref="O9:T9"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="O8:T8"/>
-    <mergeCell ref="O15:T15"/>
+    <mergeCell ref="V8:AA8"/>
+    <mergeCell ref="V9:AA9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="H19:L19"/>
     <mergeCell ref="A24:F24"/>
@@ -4659,11 +4658,14 @@
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="I24:N24"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="V20:AA20"/>
+    <mergeCell ref="O9:T9"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="O8:T8"/>
+    <mergeCell ref="O15:T15"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="O16:T16"/>
@@ -4672,8 +4674,6 @@
     <mergeCell ref="V16:AA16"/>
     <mergeCell ref="V15:AA15"/>
     <mergeCell ref="O17:T17"/>
-    <mergeCell ref="V8:AA8"/>
-    <mergeCell ref="V9:AA9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1_Transportation-Problem_LPP/src/Transportation-Problem_LPP/2_MS-Exel_Solver-Results_XLSX-FILE/Transportation-Problem_LPP.xlsx
+++ b/1_Transportation-Problem_LPP/src/Transportation-Problem_LPP/2_MS-Exel_Solver-Results_XLSX-FILE/Transportation-Problem_LPP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carpe Tonus\GitHub Repositories\2022-Q4-4_MATH_operations-research\1_Transportation-Problem_LPP\src\2023-01-04 (3) [+]\Transportation-Problem_LPP\2_MS-Exel_Solver-Results_XLSX-FILE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carpe Tonus\GitHub Repositories\2022-Q4-4_MATH_operations-research\1_Transportation-Problem_LPP\src\2023-01-10\Transportation-Problem_LPP\2_MS-Exel_Solver-Results_XLSX-FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E782F0C-DA3E-4C16-BC14-408471944585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F851B4A-4584-4346-A1E1-474494EA4DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="5" xr2:uid="{5069B475-95CF-4AFB-8FD9-7009343AD4F0}"/>
+    <workbookView xWindow="-33885" yWindow="-555" windowWidth="14400" windowHeight="7365" firstSheet="2" activeTab="6" xr2:uid="{5069B475-95CF-4AFB-8FD9-7009343AD4F0}"/>
   </bookViews>
   <sheets>
     <sheet name="0_Zeszyt (TP-n)" sheetId="3" r:id="rId1"/>
@@ -18,174 +18,208 @@
     <sheet name="1.2_Z-Magazynem (bkt)" sheetId="5" r:id="rId3"/>
     <sheet name="2.1_Z-Magazynem (kt)" sheetId="2" r:id="rId4"/>
     <sheet name="2.2_Z-Magazynem (kt+fc)" sheetId="4" r:id="rId5"/>
-    <sheet name="3_Z-Magazynem (kt+2fc)" sheetId="6" r:id="rId6"/>
+    <sheet name="3.1_Z-Magazynem (kt+2fc)" sheetId="6" r:id="rId6"/>
+    <sheet name="3.2_Z-Magazynem (kt+2fc)" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'1.1_Bez-Magazynu (bkt)'!$B$20:$E$22</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'1.2_Z-Magazynem (bkt)'!$B$20:$F$22</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'2.1_Z-Magazynem (kt)'!$B$20:$F$22</definedName>
     <definedName name="solver_adj" localSheetId="4" hidden="1">'2.2_Z-Magazynem (kt+fc)'!$B$20:$F$22</definedName>
-    <definedName name="solver_adj" localSheetId="5" hidden="1">'3_Z-Magazynem (kt+2fc)'!$B$20:$F$22</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">'3.1_Z-Magazynem (kt+2fc)'!$B$20:$F$22</definedName>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">'3.2_Z-Magazynem (kt+2fc)'!$B$20:$F$22</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'1.1_Bez-Magazynu (bkt)'!$B$25:$E$25</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'1.2_Z-Magazynem (bkt)'!$B$25:$F$25</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">'2.1_Z-Magazynem (kt)'!$B$25:$F$25</definedName>
     <definedName name="solver_lhs1" localSheetId="4" hidden="1">'2.2_Z-Magazynem (kt+fc)'!$B$25:$F$25</definedName>
-    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'3_Z-Magazynem (kt+2fc)'!$B$25:$F$25</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'3.1_Z-Magazynem (kt+2fc)'!$B$25:$F$25</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'3.2_Z-Magazynem (kt+2fc)'!$B$25:$F$25</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'1.1_Bez-Magazynu (bkt)'!$G$20:$G$22</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">'1.2_Z-Magazynem (bkt)'!$H$20:$H$22</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">'2.1_Z-Magazynem (kt)'!$H$20:$H$22</definedName>
     <definedName name="solver_lhs2" localSheetId="4" hidden="1">'2.2_Z-Magazynem (kt+fc)'!$H$20:$H$22</definedName>
-    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'3_Z-Magazynem (kt+2fc)'!$H$20:$H$22</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'3.1_Z-Magazynem (kt+2fc)'!$H$20:$H$22</definedName>
+    <definedName name="solver_lhs2" localSheetId="6" hidden="1">'3.2_Z-Magazynem (kt+2fc)'!$H$20:$H$22</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'1.1_Bez-Magazynu (bkt)'!$H$25</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'1.2_Z-Magazynem (bkt)'!$I$25</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">'2.1_Z-Magazynem (kt)'!$I$25</definedName>
     <definedName name="solver_opt" localSheetId="4" hidden="1">'2.2_Z-Magazynem (kt+fc)'!$I$25</definedName>
-    <definedName name="solver_opt" localSheetId="5" hidden="1">'3_Z-Magazynem (kt+2fc)'!$I$25</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'3.1_Z-Magazynem (kt+2fc)'!$I$25</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">'3.2_Z-Magazynem (kt+2fc)'!$I$25</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">'1.1_Bez-Magazynu (bkt)'!$B$16:$E$16</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">'1.2_Z-Magazynem (bkt)'!$B$16:$F$16</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">'2.1_Z-Magazynem (kt)'!$B$16:$F$16</definedName>
     <definedName name="solver_rhs1" localSheetId="4" hidden="1">'2.2_Z-Magazynem (kt+fc)'!$B$16:$F$16</definedName>
-    <definedName name="solver_rhs1" localSheetId="5" hidden="1">'3_Z-Magazynem (kt+2fc)'!$B$16:$F$16</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">'3.1_Z-Magazynem (kt+2fc)'!$B$16:$F$16</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">'3.2_Z-Magazynem (kt+2fc)'!$B$16:$F$16</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">'1.1_Bez-Magazynu (bkt)'!$G$11:$G$13</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">'1.2_Z-Magazynem (bkt)'!$H$11:$H$13</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">'2.1_Z-Magazynem (kt)'!$H$11:$H$13</definedName>
     <definedName name="solver_rhs2" localSheetId="4" hidden="1">'2.2_Z-Magazynem (kt+fc)'!$H$11:$H$13</definedName>
-    <definedName name="solver_rhs2" localSheetId="5" hidden="1">'3_Z-Magazynem (kt+2fc)'!$H$11:$H$13</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">'3.1_Z-Magazynem (kt+2fc)'!$H$11:$H$13</definedName>
+    <definedName name="solver_rhs2" localSheetId="6" hidden="1">'3.2_Z-Magazynem (kt+2fc)'!$H$11:$H$13</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -197,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="36">
   <si>
     <t>ZADANIE TRANSPORTOWE [ TRANSPORTATION PROBLEM ]</t>
   </si>
@@ -297,6 +331,15 @@
   <si>
     <t>Koszty transportu [w zł za kg ] &lt; bez uwzględnienia KP &gt;</t>
   </si>
+  <si>
+    <t>Obliczenia pomocnicze nr 1</t>
+  </si>
+  <si>
+    <t>Obliczenia pomocnicze nr 2</t>
+  </si>
+  <si>
+    <t>Funkcja celu [ zawierający fikcyjny magazyn ]</t>
+  </si>
 </sst>
 </file>
 
@@ -832,7 +875,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -915,13 +958,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -935,6 +975,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -988,6 +1031,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1388,18 +1437,18 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="39" t="s">
@@ -1408,21 +1457,21 @@
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
       <c r="E2" s="40"/>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="34"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1435,14 +1484,14 @@
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="34"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="42"/>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -1466,12 +1515,12 @@
       <c r="G4" s="4">
         <v>4</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -1539,19 +1588,19 @@
       <c r="G7" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="G9" s="30" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="G9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
@@ -1633,23 +1682,23 @@
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
       <c r="G15" s="13">
         <f>SUM(G11:G13)</f>
         <v>7500</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="36"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
@@ -1679,13 +1728,13 @@
       <c r="K16" s="38"/>
     </row>
     <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -1701,13 +1750,13 @@
       <c r="E19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
@@ -1773,22 +1822,22 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
       <c r="G24" s="16">
         <f>SUM(G20:G22)</f>
         <v>5000</v>
       </c>
-      <c r="H24" s="30" t="s">
+      <c r="H24" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="29" t="s">
@@ -1814,15 +1863,19 @@
         <f>SUM(B25:E25)</f>
         <v>5000</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="30">
         <f>SUMPRODUCT(B11:E13,B20:E22)</f>
         <v>800</v>
       </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="H24:J24"/>
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A2:A3"/>
@@ -1837,10 +1890,6 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="I3:L3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="H24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1860,19 +1909,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="39" t="s">
@@ -1890,15 +1939,15 @@
       <c r="H2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="34"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1916,12 +1965,12 @@
       </c>
       <c r="G3" s="48"/>
       <c r="H3" s="42"/>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -1948,12 +1997,12 @@
       <c r="H4" s="4">
         <v>4</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -2030,20 +2079,20 @@
       <c r="H7" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="H9" s="30" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="H9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
@@ -2137,14 +2186,14 @@
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
       <c r="H15" s="13">
         <f>SUM(H11:H13)</f>
         <v>7500</v>
@@ -2187,13 +2236,13 @@
       <c r="L16" s="45"/>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -2212,13 +2261,13 @@
       <c r="F19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
@@ -2293,23 +2342,23 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
       <c r="H24" s="16">
         <f>SUM(H20:H22)</f>
         <v>7500</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="I24" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="29" t="s">
@@ -2339,15 +2388,20 @@
         <f>SUM(B25:F25)</f>
         <v>7500</v>
       </c>
-      <c r="I25" s="32">
+      <c r="I25" s="30">
         <f>SUMPRODUCT(B11:E13,B20:E22)</f>
         <v>800</v>
       </c>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
     <mergeCell ref="I16:L16"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A3"/>
@@ -2361,11 +2415,6 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="I15:L15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2385,19 +2434,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="39" t="s">
@@ -2415,15 +2464,15 @@
       <c r="H2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="34"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -2441,12 +2490,12 @@
       </c>
       <c r="G3" s="48"/>
       <c r="H3" s="42"/>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -2473,12 +2522,12 @@
       <c r="H4" s="4">
         <v>4</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -2555,20 +2604,20 @@
       <c r="H7" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="H9" s="30" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="H9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
@@ -2677,14 +2726,14 @@
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
       <c r="H15" s="13">
         <f>SUM(H11:H13)</f>
         <v>7500</v>
@@ -2727,13 +2776,13 @@
       <c r="L16" s="45"/>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -2752,13 +2801,13 @@
       <c r="F19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
@@ -2833,23 +2882,23 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
       <c r="H24" s="16">
         <f>SUM(H20:H22)</f>
         <v>7500</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="I24" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="29" t="s">
@@ -2879,26 +2928,15 @@
         <f>SUM(B25:F25)</f>
         <v>7500</v>
       </c>
-      <c r="I25" s="32">
+      <c r="I25" s="30">
         <f>SUMPRODUCT(B11:E13,B20:E22)</f>
         <v>22000</v>
       </c>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="I24:K24"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:G3"/>
@@ -2906,6 +2944,17 @@
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="J3:M3"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2926,19 +2975,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="39" t="s">
@@ -2956,15 +3005,15 @@
       <c r="H2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="34"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -2982,12 +3031,12 @@
       </c>
       <c r="G3" s="48"/>
       <c r="H3" s="42"/>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -3014,12 +3063,12 @@
       <c r="H4" s="4">
         <v>4</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -3096,28 +3145,28 @@
       <c r="H7" s="12"/>
     </row>
     <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="H9" s="30" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="H9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="N9" s="31" t="s">
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="N9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
@@ -3311,14 +3360,14 @@
     </row>
     <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
       <c r="H15" s="13">
         <f>SUM(H11:H13)</f>
         <v>7500</v>
@@ -3329,14 +3378,14 @@
       <c r="J15" s="50"/>
       <c r="K15" s="50"/>
       <c r="L15" s="51"/>
-      <c r="N15" s="31" t="s">
+      <c r="N15" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
     </row>
     <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
@@ -3387,22 +3436,22 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="N18" s="31" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="N18" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -3421,13 +3470,13 @@
       <c r="F19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
       <c r="N19" s="5"/>
       <c r="O19" s="1" t="s">
         <v>3</v>
@@ -3587,31 +3636,31 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
       <c r="H24" s="16">
         <f>SUM(H20:H22)</f>
         <v>7500</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="I24" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="N24" s="30" t="s">
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="N24" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="29" t="s">
@@ -3641,12 +3690,12 @@
         <f>SUM(B25:F25)</f>
         <v>7500</v>
       </c>
-      <c r="I25" s="32">
+      <c r="I25" s="30">
         <f>SUMPRODUCT(B11:E13,B20:E22)</f>
         <v>22000</v>
       </c>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
       <c r="N25" s="52">
         <f>SUMPRODUCT(O11:S13,O20:S22)</f>
         <v>33100</v>
@@ -3659,6 +3708,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="N18:S18"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="N24:S24"/>
     <mergeCell ref="N25:S25"/>
@@ -3675,13 +3731,6 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="I15:L15"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="N15:S15"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="N18:S18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3691,7 +3740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77655FDA-ED4F-4F17-A760-41FBD87C16B9}">
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I25" sqref="I25:N25"/>
     </sheetView>
   </sheetViews>
@@ -3703,19 +3752,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="39" t="s">
@@ -3733,31 +3782,31 @@
       <c r="H2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="O2" s="31" t="s">
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="O2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="V2" s="31" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="V2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="34"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -3775,12 +3824,12 @@
       </c>
       <c r="G3" s="48"/>
       <c r="H3" s="42"/>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
       <c r="O3" s="5"/>
       <c r="P3" s="1" t="s">
         <v>3</v>
@@ -3839,12 +3888,12 @@
       <c r="H4" s="4">
         <v>4</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
       <c r="O4" s="6" t="s">
         <v>3</v>
       </c>
@@ -4044,54 +4093,54 @@
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="O8" s="30" t="s">
+      <c r="O8" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="V8" s="30" t="s">
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="V8" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
     </row>
     <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="H9" s="30" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="H9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="O9" s="31" t="s">
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="O9" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="V9" s="31" t="s">
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="V9" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
@@ -4355,14 +4404,14 @@
     </row>
     <row r="14" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
       <c r="H15" s="13">
         <f>SUM(H11:H13)</f>
         <v>7500</v>
@@ -4373,22 +4422,22 @@
       <c r="J15" s="50"/>
       <c r="K15" s="50"/>
       <c r="L15" s="51"/>
-      <c r="O15" s="30" t="s">
+      <c r="O15" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="V15" s="30" t="s">
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="V15" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
     </row>
     <row r="16" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
@@ -4419,14 +4468,14 @@
       <c r="J16" s="44"/>
       <c r="K16" s="44"/>
       <c r="L16" s="45"/>
-      <c r="O16" s="30" t="s">
+      <c r="O16" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
       <c r="V16" s="54">
         <f>SUMPRODUCT(W4:Z6,W11:Z13)</f>
         <v>800</v>
@@ -4449,22 +4498,22 @@
       <c r="T17" s="52"/>
     </row>
     <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="V18" s="30" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="V18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -4483,21 +4532,21 @@
       <c r="F19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="V19" s="30" t="s">
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="V19" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
@@ -4581,26 +4630,26 @@
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
       <c r="H24" s="16">
         <f>SUM(H20:H22)</f>
         <v>7500</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="I24" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" s="29" t="s">
@@ -4630,34 +4679,18 @@
         <f>SUM(B25:F25)</f>
         <v>7500</v>
       </c>
-      <c r="I25" s="32">
+      <c r="I25" s="30">
         <f>SUMPRODUCT(B11:E13,B20:E22)</f>
         <v>22000</v>
       </c>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="V8:AA8"/>
-    <mergeCell ref="V9:AA9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I24:N24"/>
     <mergeCell ref="I25:N25"/>
     <mergeCell ref="I16:L16"/>
     <mergeCell ref="V20:AA20"/>
@@ -4674,6 +4707,997 @@
     <mergeCell ref="V16:AA16"/>
     <mergeCell ref="V15:AA15"/>
     <mergeCell ref="O17:T17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="V8:AA8"/>
+    <mergeCell ref="V9:AA9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEABA58D-979F-4F6D-9492-00A574742518}">
+  <dimension ref="A1:AC25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25:N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" customWidth="1"/>
+    <col min="13" max="13" width="9.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+    </row>
+    <row r="2" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="O2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="V2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A3" s="33"/>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="42"/>
+      <c r="J3" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="5"/>
+      <c r="W3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21">
+        <v>3000</v>
+      </c>
+      <c r="H4" s="4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="O4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" ref="P4:T6" si="0">B11</f>
+        <v>4</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R4" s="3">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="S4" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="21">
+        <v>2000</v>
+      </c>
+      <c r="H5" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" si="0"/>
+        <v>5.3</v>
+      </c>
+      <c r="S5" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" s="3">
+        <v>1</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="23">
+        <v>0</v>
+      </c>
+      <c r="G6" s="25">
+        <v>2500</v>
+      </c>
+      <c r="H6" s="26">
+        <v>4.2</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" si="0"/>
+        <v>4.7</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="0"/>
+        <v>4.7</v>
+      </c>
+      <c r="R6" s="8">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="S6" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="T6" s="9">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="W6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="X6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="11">
+        <v>2500</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="O8" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="V8" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+    </row>
+    <row r="9" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="H9" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="O9" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="V9" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="5"/>
+      <c r="P10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V10" s="5"/>
+      <c r="W10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3">
+        <f>(0+H4)</f>
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <f>(0.4+H4)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D11" s="3">
+        <f>(0.5+H4)</f>
+        <v>4.5</v>
+      </c>
+      <c r="E11" s="4">
+        <f>(1+H4)</f>
+        <v>5</v>
+      </c>
+      <c r="F11" s="4">
+        <f>(0+H4)</f>
+        <v>4</v>
+      </c>
+      <c r="H11" s="6">
+        <v>3000</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" ref="P11:T13" si="1">B20</f>
+        <v>1000</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="W11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>2000</v>
+      </c>
+      <c r="AB11" s="56"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3">
+        <f>(1+H5)</f>
+        <v>5.5</v>
+      </c>
+      <c r="C12" s="3">
+        <f>(0+H5)</f>
+        <v>4.5</v>
+      </c>
+      <c r="D12" s="3">
+        <f>(0.8+H5)</f>
+        <v>5.3</v>
+      </c>
+      <c r="E12" s="4">
+        <f>(0.6+H5)</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F12" s="4">
+        <f>(0+H5)</f>
+        <v>4.5</v>
+      </c>
+      <c r="H12" s="6">
+        <v>2000</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="56"/>
+    </row>
+    <row r="13" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="8">
+        <f>(0.5+H6)</f>
+        <v>4.7</v>
+      </c>
+      <c r="C13" s="8">
+        <f>(0.5+H6)</f>
+        <v>4.7</v>
+      </c>
+      <c r="D13" s="8">
+        <f>(0+H6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="E13" s="9">
+        <f>(0.8+H6)</f>
+        <v>5</v>
+      </c>
+      <c r="F13" s="9">
+        <f>(0+H6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>2500</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="8">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="S13" s="9">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="T13" s="9">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="W13" s="8">
+        <v>0</v>
+      </c>
+      <c r="X13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>1000</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>500</v>
+      </c>
+      <c r="AC13" s="56"/>
+    </row>
+    <row r="14" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="H15" s="13">
+        <f>SUM(H11:H13)</f>
+        <v>7500</v>
+      </c>
+      <c r="I15" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="51"/>
+      <c r="O15" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="V15" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+    </row>
+    <row r="16" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="12">
+        <v>2500</v>
+      </c>
+      <c r="H16" s="14">
+        <f>SUM(B16:F16)</f>
+        <v>7500</v>
+      </c>
+      <c r="I16" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="45"/>
+      <c r="O16" s="55">
+        <f>SUMPRODUCT(P4:T6,P11:T13)</f>
+        <v>33100</v>
+      </c>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="V16" s="54">
+        <f>SUMPRODUCT(W4:Z6,W11:Z13)</f>
+        <v>800</v>
+      </c>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54"/>
+    </row>
+    <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="V18" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="V19" s="53">
+        <f>SUMPRODUCT(P4:T6,W11:AA13)</f>
+        <v>32300</v>
+      </c>
+      <c r="W19" s="53"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="53"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="17">
+        <f>SUM(B20:F20)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2000</v>
+      </c>
+      <c r="H21" s="17">
+        <f>SUM(B21:F21)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="9">
+        <v>500</v>
+      </c>
+      <c r="H22" s="17">
+        <f>SUM(B22:F22)</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A24" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="H24" s="16">
+        <f>SUM(H20:H22)</f>
+        <v>7500</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A25" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="18">
+        <f>SUM(B20:B22)</f>
+        <v>1000</v>
+      </c>
+      <c r="C25" s="18">
+        <f>SUM(C20:C22)</f>
+        <v>2000</v>
+      </c>
+      <c r="D25" s="18">
+        <f>SUM(D20:D22)</f>
+        <v>1000</v>
+      </c>
+      <c r="E25" s="18">
+        <f>SUM(E20:E22)</f>
+        <v>1000</v>
+      </c>
+      <c r="F25" s="18">
+        <f>SUM(F20:F22)</f>
+        <v>2500</v>
+      </c>
+      <c r="H25" s="15">
+        <f>SUM(B25:F25)</f>
+        <v>7500</v>
+      </c>
+      <c r="I25" s="30">
+        <f>SUMPRODUCT(B11:E13,B20:E22)</f>
+        <v>22000</v>
+      </c>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="V19:AA19"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="V16:AA16"/>
+    <mergeCell ref="O16:T16"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="V18:AA18"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="O9:T9"/>
+    <mergeCell ref="V9:AA9"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="O15:T15"/>
+    <mergeCell ref="V15:AA15"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="O8:T8"/>
+    <mergeCell ref="V8:AA8"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
